--- a/Medidas/MW101-TRLCalc-rev1.xlsx
+++ b/Medidas/MW101-TRLCalc-rev1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -410,7 +410,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -460,10 +460,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12064309750322"/>
-          <c:y val="0.112241964234374"/>
-          <c:w val="0.815878027501973"/>
-          <c:h val="0.634006095106664"/>
+          <c:x val="0.120647437227641"/>
+          <c:y val="0.112248418631397"/>
+          <c:w val="0.815853911599917"/>
+          <c:h val="0.633985048878666"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -849,7 +849,7 @@
                   <c:v>2.4600907685992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5760312745967</c:v>
+                  <c:v>2.57603127459671</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.69743588830215</c:v>
@@ -858,7 +858,7 @@
                   <c:v>2.82456212517822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.95767963701743</c:v>
+                  <c:v>2.95767963701744</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.09707078390978</c:v>
@@ -873,7 +873,7 @@
                   <c:v>3.5559130365782</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7234980549874</c:v>
+                  <c:v>3.72349805498739</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.8989811119893</c:v>
@@ -903,7 +903,7 @@
                   <c:v>5.63574236465652</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.90134671949172</c:v>
+                  <c:v>5.90134671949173</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6.17946862192631</c:v>
@@ -918,40 +918,40 @@
                   <c:v>7.09497927719104</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.42935534897627</c:v>
+                  <c:v>7.42935534897631</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.77949007952771</c:v>
+                  <c:v>7.77949007952772</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8.14612615155223</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.53004124931435</c:v>
+                  <c:v>8.53004124931433</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.93204970820881</c:v>
+                  <c:v>8.93204970820879</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.35300424207515</c:v>
+                  <c:v>9.35300424207512</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.79379775191806</c:v>
+                  <c:v>9.79379775191807</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.2553652198701</c:v>
+                  <c:v>10.2553652198702</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10.7386856924143</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.2447843570728</c:v>
+                  <c:v>11.2447843570727</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11.7747347169671</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.3296608678622</c:v>
+                  <c:v>12.3296608678623</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>12.9107398825246</c:v>
@@ -960,7 +960,7 @@
                   <c:v>13.5192043074508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.1563447772644</c:v>
+                  <c:v>14.1563447772645</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>14.8235127523248</c:v>
@@ -993,7 +993,7 @@
                   <c:v>22.4362944676188</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>23.4936844495201</c:v>
+                  <c:v>23.4936844495202</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>24.600907685992</c:v>
@@ -1008,7 +1008,7 @@
                   <c:v>28.2456212517822</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.5767963701743</c:v>
+                  <c:v>29.5767963701744</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>30.9707078390978</c:v>
@@ -1053,43 +1053,43 @@
                   <c:v>56.3574236465652</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>59.0134671949172</c:v>
+                  <c:v>59.0134671949173</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>61.7946862192631</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>64.7069800580379</c:v>
+                  <c:v>64.7069800580378</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>67.7565260769317</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>70.9497927719104</c:v>
+                  <c:v>70.9497927719105</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>74.2935534897628</c:v>
+                  <c:v>74.2935534897631</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>77.7949007952771</c:v>
+                  <c:v>77.7949007952772</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>81.4612615155223</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85.3004124931434</c:v>
+                  <c:v>85.3004124931433</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>89.3204970820881</c:v>
+                  <c:v>89.3204970820879</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>93.5300424207516</c:v>
+                  <c:v>93.5300424207512</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>97.9379775191806</c:v>
+                  <c:v>97.9379775191807</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>102.553652198701</c:v>
+                  <c:v>102.553652198702</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>107.386856924143</c:v>
@@ -1101,7 +1101,7 @@
                   <c:v>117.747347169671</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123.296608678622</c:v>
+                  <c:v>123.296608678623</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>129.107398825246</c:v>
@@ -1110,7 +1110,7 @@
                   <c:v>135.192043074508</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>141.563447772644</c:v>
+                  <c:v>141.563447772645</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>148.235127523248</c:v>
@@ -1132,8 +1132,8 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73759276"/>
-        <c:axId val="51372603"/>
+        <c:axId val="76142671"/>
+        <c:axId val="2497899"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
@@ -1219,11 +1219,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93455677"/>
-        <c:axId val="1856978"/>
+        <c:axId val="72735871"/>
+        <c:axId val="1062220"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73759276"/>
+        <c:axId val="76142671"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1308,12 +1308,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51372603"/>
+        <c:crossAx val="2497899"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51372603"/>
+        <c:axId val="2497899"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -1399,12 +1399,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73759276"/>
+        <c:crossAx val="76142671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93455677"/>
+        <c:axId val="72735871"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1479,12 +1479,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1856978"/>
+        <c:crossAx val="1062220"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1856978"/>
+        <c:axId val="1062220"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -1560,7 +1560,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93455677"/>
+        <c:crossAx val="72735871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1598,7 +1598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1648,10 +1648,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.120615946540489"/>
-          <c:y val="0.112276478679505"/>
-          <c:w val="0.815880131158428"/>
-          <c:h val="0.633998165978909"/>
+          <c:x val="0.120620309325372"/>
+          <c:y val="0.112282913968017"/>
+          <c:w val="0.815856035161919"/>
+          <c:h val="0.633977188055253"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2064,7 +2064,7 @@
                   <c:v>34.1884821412479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.799735664629</c:v>
+                  <c:v>35.7997356646291</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>37.486925227109</c:v>
@@ -2079,10 +2079,10 @@
                   <c:v>43.0407489582881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.0691969637154</c:v>
+                  <c:v>45.0691969637155</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.1932427784354</c:v>
+                  <c:v>47.1932427784353</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>49.4173917883966</c:v>
@@ -2097,7 +2097,7 @@
                   <c:v>56.7387573467779</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59.4127725987439</c:v>
+                  <c:v>59.4127725987438</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>62.2128103070009</c:v>
@@ -2106,31 +2106,31 @@
                   <c:v>65.1448097269359</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.2149900224185</c:v>
+                  <c:v>68.2149900224189</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71.4298634574817</c:v>
+                  <c:v>71.4298634574818</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>74.7962492097068</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.3212878346136</c:v>
+                  <c:v>78.3212878346134</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>82.0124564117355</c:v>
+                  <c:v>82.0124564117352</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>85.8775844045082</c:v>
+                  <c:v>85.8775844045079</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>89.9248702676113</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>94.1628988369893</c:v>
+                  <c:v>94.1628988369896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>98.6006595394403</c:v>
+                  <c:v>98.6006595394404</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>103.247565460395</c:v>
@@ -2142,13 +2142,13 @@
                   <c:v>113.20870433219</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>118.544066194089</c:v>
+                  <c:v>118.54406619409</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>124.130875913866</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>129.980983863973</c:v>
+                  <c:v>129.980983863974</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>136.10679890771</c:v>
@@ -2166,7 +2166,7 @@
                   <c:v>163.636363636364</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>171.348307862874</c:v>
+                  <c:v>171.348307862875</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>179.42370482343</c:v>
@@ -2187,7 +2187,7 @@
                   <c:v>225.881061480472</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>236.526507940243</c:v>
+                  <c:v>236.526507940242</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>247.673658835016</c:v>
@@ -2214,7 +2214,7 @@
                   <c:v>341.884821412479</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>357.99735664629</c:v>
+                  <c:v>357.997356646291</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>374.86925227109</c:v>
@@ -2229,10 +2229,10 @@
                   <c:v>430.407489582881</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>450.691969637154</c:v>
+                  <c:v>450.691969637155</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>471.932427784354</c:v>
+                  <c:v>471.932427784353</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>494.173917883966</c:v>
@@ -2247,7 +2247,7 @@
                   <c:v>567.387573467779</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>594.127725987439</c:v>
+                  <c:v>594.127725987438</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>622.128103070009</c:v>
@@ -2256,28 +2256,28 @@
                   <c:v>651.448097269359</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>682.149900224185</c:v>
+                  <c:v>682.149900224189</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>714.298634574817</c:v>
+                  <c:v>714.298634574818</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>747.962492097068</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>783.212878346135</c:v>
+                  <c:v>783.212878346134</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>820.124564117355</c:v>
+                  <c:v>820.124564117352</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>858.775844045082</c:v>
+                  <c:v>858.77584404508</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>899.248702676113</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>941.628988369893</c:v>
+                  <c:v>941.628988369896</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>986.006595394404</c:v>
@@ -2292,13 +2292,13 @@
                   <c:v>1132.0870433219</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1185.44066194089</c:v>
+                  <c:v>1185.4406619409</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1241.30875913866</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1299.80983863973</c:v>
+                  <c:v>1299.80983863974</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>1361.0679890771</c:v>
@@ -2679,7 +2679,7 @@
                   <c:v>1.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.71348307862874</c:v>
+                  <c:v>1.71348307862875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7942370482343</c:v>
@@ -2727,7 +2727,7 @@
                   <c:v>3.41884821412479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5799735664629</c:v>
+                  <c:v>3.57997356646291</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.7486925227109</c:v>
@@ -2742,13 +2742,13 @@
                   <c:v>4.30407489582881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.50691969637154</c:v>
+                  <c:v>4.50691969637155</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.71932427784354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.94173917883966</c:v>
+                  <c:v>4.94173917883967</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5.17463617118462</c:v>
@@ -2760,7 +2760,7 @@
                   <c:v>5.67387573467779</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.94127725987438</c:v>
+                  <c:v>5.94127725987439</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6.22128103070009</c:v>
@@ -2769,31 +2769,31 @@
                   <c:v>6.51448097269359</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.82149900224185</c:v>
+                  <c:v>6.82149900224189</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.14298634574817</c:v>
+                  <c:v>7.14298634574818</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7.47962492097068</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.83212878346136</c:v>
+                  <c:v>7.83212878346134</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.20124564117354</c:v>
+                  <c:v>8.20124564117352</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.58775844045082</c:v>
+                  <c:v>8.5877584404508</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.99248702676113</c:v>
+                  <c:v>8.99248702676114</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.41628988369893</c:v>
+                  <c:v>9.41628988369896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.86006595394404</c:v>
+                  <c:v>9.86006595394405</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10.3247565460395</c:v>
@@ -2805,13 +2805,13 @@
                   <c:v>11.320870433219</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.8544066194089</c:v>
+                  <c:v>11.854406619409</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>12.4130875913866</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.9980983863973</c:v>
+                  <c:v>12.9980983863974</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>13.610679890771</c:v>
@@ -2829,7 +2829,7 @@
                   <c:v>16.3636363636364</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17.1348307862874</c:v>
+                  <c:v>17.1348307862875</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>17.942370482343</c:v>
@@ -2850,7 +2850,7 @@
                   <c:v>22.5881061480472</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>23.6526507940243</c:v>
+                  <c:v>23.6526507940242</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>24.7673658835016</c:v>
@@ -2874,13 +2874,13 @@
                   <c:v>32.649746972218</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>34.1884821412479</c:v>
+                  <c:v>34.188482141248</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35.799735664629</c:v>
+                  <c:v>35.7997356646291</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37.486925227109</c:v>
+                  <c:v>37.4869252271091</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>39.2536295839553</c:v>
@@ -2892,7 +2892,7 @@
                   <c:v>43.0407489582881</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>45.0691969637154</c:v>
+                  <c:v>45.0691969637155</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>47.1932427784354</c:v>
@@ -2910,40 +2910,40 @@
                   <c:v>56.7387573467779</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>59.4127725987439</c:v>
+                  <c:v>59.4127725987438</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>62.2128103070009</c:v>
+                  <c:v>62.212810307001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>65.1448097269359</c:v>
+                  <c:v>65.144809726936</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>68.2149900224185</c:v>
+                  <c:v>68.2149900224189</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>71.4298634574817</c:v>
+                  <c:v>71.4298634574818</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>74.7962492097068</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>78.3212878346135</c:v>
+                  <c:v>78.3212878346134</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>82.0124564117354</c:v>
+                  <c:v>82.0124564117352</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>85.8775844045082</c:v>
+                  <c:v>85.877584404508</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>89.9248702676113</c:v>
+                  <c:v>89.9248702676114</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>94.1628988369893</c:v>
+                  <c:v>94.1628988369896</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>98.6006595394404</c:v>
+                  <c:v>98.6006595394405</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>103.247565460395</c:v>
@@ -2955,13 +2955,13 @@
                   <c:v>113.20870433219</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>118.544066194089</c:v>
+                  <c:v>118.54406619409</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>124.130875913866</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>129.980983863973</c:v>
+                  <c:v>129.980983863974</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>136.10679890771</c:v>
@@ -2983,8 +2983,8 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59268327"/>
-        <c:axId val="57467927"/>
+        <c:axId val="33853423"/>
+        <c:axId val="69876506"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
@@ -3082,11 +3082,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98488476"/>
-        <c:axId val="21164094"/>
+        <c:axId val="48964724"/>
+        <c:axId val="33956959"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59268327"/>
+        <c:axId val="33853423"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3171,12 +3171,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57467927"/>
+        <c:crossAx val="69876506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57467927"/>
+        <c:axId val="69876506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -3262,12 +3262,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59268327"/>
+        <c:crossAx val="33853423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98488476"/>
+        <c:axId val="48964724"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3342,12 +3342,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21164094"/>
+        <c:crossAx val="33956959"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21164094"/>
+        <c:axId val="33956959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -3423,7 +3423,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98488476"/>
+        <c:crossAx val="48964724"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3461,7 +3461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3511,10 +3511,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.120615946540489"/>
-          <c:y val="0.112276478679505"/>
-          <c:w val="0.815880131158428"/>
-          <c:h val="0.633998165978909"/>
+          <c:x val="0.120620309325372"/>
+          <c:y val="0.112282913968017"/>
+          <c:w val="0.815856035161919"/>
+          <c:h val="0.633977188055253"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3876,7 +3876,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
                 <c:pt idx="0">
-                  <c:v>31.9059054654167</c:v>
+                  <c:v>31.9059054654168</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>33.4095844642511</c:v>
@@ -3885,22 +3885,22 @@
                   <c:v>34.9841296710351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.6328809072554</c:v>
+                  <c:v>36.6328809072555</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38.3593353953359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.1671551767155</c:v>
+                  <c:v>40.1671551767156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.0601748795293</c:v>
+                  <c:v>42.0601748795294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.0424098523685</c:v>
+                  <c:v>44.0424098523684</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.1180646813732</c:v>
+                  <c:v>46.1180646813733</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>48.2915421087238</c:v>
@@ -3909,7 +3909,7 @@
                   <c:v>50.5674523714468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.9506229803461</c:v>
+                  <c:v>52.9506229803462</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>55.4461089598004</c:v>
@@ -3921,25 +3921,25 @@
                   <c:v>60.7954495354005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.6606508001056</c:v>
+                  <c:v>63.6606508001057</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.66088484029</c:v>
+                  <c:v>66.6608848402899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.802515554601</c:v>
+                  <c:v>69.8025155546011</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73.0922067629897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.5369363415656</c:v>
+                  <c:v>76.5369363415657</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>80.1440110236077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.9210818981256</c:v>
+                  <c:v>83.9210818981257</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>87.8761606388449</c:v>
@@ -3948,7 +3948,7 @@
                   <c:v>92.0176364980413</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.3542941012694</c:v>
+                  <c:v>96.3542941012695</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>100.895332080732</c:v>
@@ -3969,10 +3969,10 @@
                   <c:v>127.019697487844</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>133.005951404311</c:v>
+                  <c:v>133.005951404312</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>139.274328776124</c:v>
+                  <c:v>139.274328776125</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>145.838125672107</c:v>
@@ -3981,10 +3981,10 @@
                   <c:v>152.711264785498</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>159.908324965855</c:v>
+                  <c:v>159.908324965854</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>167.444572142747</c:v>
+                  <c:v>167.444572142746</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>175.335991706839</c:v>
@@ -4011,10 +4011,10 @@
                   <c:v>242.031043970662</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>253.437615656243</c:v>
+                  <c:v>253.437615656244</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>265.381762503603</c:v>
+                  <c:v>265.381762503604</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>277.888819649587</c:v>
@@ -4023,10 +4023,10 @@
                   <c:v>290.98531623925</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>304.699031697738</c:v>
+                  <c:v>304.699031697739</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>319.059054654167</c:v>
+                  <c:v>319.059054654168</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>334.095844642511</c:v>
@@ -4035,7 +4035,7 @@
                   <c:v>349.841296710351</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>366.328809072554</c:v>
+                  <c:v>366.328809072555</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>383.593353953359</c:v>
@@ -4044,10 +4044,10 @@
                   <c:v>401.671551767156</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>420.601748795293</c:v>
+                  <c:v>420.601748795294</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>440.424098523685</c:v>
+                  <c:v>440.424098523684</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>461.180646813732</c:v>
@@ -4059,10 +4059,10 @@
                   <c:v>505.674523714468</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>529.506229803461</c:v>
+                  <c:v>529.506229803462</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>554.461089598004</c:v>
+                  <c:v>554.461089598005</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>580.592035701478</c:v>
@@ -4071,25 +4071,25 @@
                   <c:v>607.954495354005</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>636.606508001056</c:v>
+                  <c:v>636.606508001057</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>666.6088484029</c:v>
+                  <c:v>666.608848402901</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>698.025155546011</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>730.922067629897</c:v>
+                  <c:v>730.922067629898</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>765.369363415655</c:v>
+                  <c:v>765.369363415656</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>801.440110236076</c:v>
+                  <c:v>801.440110236077</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>839.210818981256</c:v>
+                  <c:v>839.210818981257</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>878.761606388449</c:v>
@@ -4119,10 +4119,10 @@
                   <c:v>1270.19697487844</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1330.05951404311</c:v>
+                  <c:v>1330.05951404312</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1392.74328776124</c:v>
+                  <c:v>1392.74328776125</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1458.38125672107</c:v>
@@ -4131,7 +4131,7 @@
                   <c:v>1527.11264785498</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1599.08324965855</c:v>
+                  <c:v>1599.08324965854</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1674.44572142747</c:v>
@@ -4161,10 +4161,10 @@
                   <c:v>2420.31043970662</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2534.37615656243</c:v>
+                  <c:v>2534.37615656244</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2653.81762503603</c:v>
+                  <c:v>2653.81762503604</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>2778.88819649587</c:v>
@@ -4173,10 +4173,10 @@
                   <c:v>2909.8531623925</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3046.99031697738</c:v>
+                  <c:v>3046.99031697739</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3190.59054654167</c:v>
+                  <c:v>3190.59054654168</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v/>
@@ -4566,31 +4566,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
                 <c:pt idx="0">
-                  <c:v>6.87391895515717</c:v>
+                  <c:v>6.87391895515718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.19787677493329</c:v>
+                  <c:v>7.1978767749333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.53710225638518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.89231494223978</c:v>
+                  <c:v>7.89231494223979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.26426828622795</c:v>
+                  <c:v>8.26426828622796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.65375125126097</c:v>
+                  <c:v>8.65375125126098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.06158998292656</c:v>
+                  <c:v>9.06158998292658</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.48864956185446</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.93583583866847</c:v>
+                  <c:v>9.93583583866849</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10.404097355417</c:v>
@@ -4605,7 +4605,7 @@
                   <c:v>11.9455020570282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.5084762247149</c:v>
+                  <c:v>12.508476224715</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>13.097982547515</c:v>
@@ -4638,7 +4638,7 @@
                   <c:v>19.8245988166124</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.7589033745309</c:v>
+                  <c:v>20.758903374531</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>21.7372403497015</c:v>
@@ -4650,7 +4650,7 @@
                   <c:v>23.8344100877716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.9576912288579</c:v>
+                  <c:v>24.957691228858</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>26.1339109791767</c:v>
@@ -4659,13 +4659,13 @@
                   <c:v>27.3655642585167</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.6552635686142</c:v>
+                  <c:v>28.6552635686144</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30.0057445346188</c:v>
+                  <c:v>30.0057445346189</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.4198717077216</c:v>
+                  <c:v>31.4198717077217</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>32.9006446412521</c:v>
@@ -4674,34 +4674,34 @@
                   <c:v>34.4512042531329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0748394881881</c:v>
+                  <c:v>36.074839488188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.7749942944356</c:v>
+                  <c:v>37.7749942944357</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.5552749281634</c:v>
+                  <c:v>39.5552749281635</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.4194576032819</c:v>
+                  <c:v>41.419457603282</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43.3714965011803</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.4155321580756</c:v>
+                  <c:v>45.4155321580757</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>47.5559002476447</c:v>
+                  <c:v>47.5559002476448</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49.7971407775696</c:v>
+                  <c:v>49.7971407775697</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>52.1440077195027</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>54.6014790928777</c:v>
+                  <c:v>54.6014790928779</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>57.1747675239566</c:v>
@@ -4713,28 +4713,28 @@
                   <c:v>62.6908859595739</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65.6454163908731</c:v>
+                  <c:v>65.6454163908733</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>68.7391895515717</c:v>
+                  <c:v>68.7391895515718</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>71.9787677493329</c:v>
+                  <c:v>71.978767749333</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>75.3710225638518</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>78.9231494223978</c:v>
+                  <c:v>78.9231494223979</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>82.6426828622796</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>86.5375125126097</c:v>
+                  <c:v>86.5375125126098</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>90.6158998292656</c:v>
+                  <c:v>90.6158998292658</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>94.8864956185446</c:v>
@@ -4755,7 +4755,7 @@
                   <c:v>119.455020570282</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>125.084762247149</c:v>
+                  <c:v>125.08476224715</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>130.97982547515</c:v>
@@ -4764,7 +4764,7 @@
                   <c:v>137.152714473754</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>143.616522768141</c:v>
+                  <c:v>143.616522768142</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>150.384960962323</c:v>
@@ -4788,7 +4788,7 @@
                   <c:v>198.245988166124</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>207.589033745309</c:v>
+                  <c:v>207.58903374531</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>217.372403497015</c:v>
@@ -4797,25 +4797,25 @@
                   <c:v>227.616849260164</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>238.344100877715</c:v>
+                  <c:v>238.344100877716</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>249.576912288579</c:v>
+                  <c:v>249.57691228858</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>261.339109791767</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>273.655642585167</c:v>
+                  <c:v>273.655642585168</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>286.552635686142</c:v>
+                  <c:v>286.552635686144</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>300.057445346188</c:v>
+                  <c:v>300.057445346189</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>314.198717077216</c:v>
+                  <c:v>314.198717077217</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>329.006446412521</c:v>
@@ -4827,31 +4827,31 @@
                   <c:v>360.74839488188</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>377.749942944356</c:v>
+                  <c:v>377.749942944357</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>395.552749281634</c:v>
+                  <c:v>395.552749281635</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>414.194576032819</c:v>
+                  <c:v>414.19457603282</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>433.714965011803</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>454.155321580756</c:v>
+                  <c:v>454.155321580757</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>475.559002476447</c:v>
+                  <c:v>475.559002476448</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>497.971407775696</c:v>
+                  <c:v>497.971407775697</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>521.440077195027</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>546.014790928777</c:v>
+                  <c:v>546.014790928779</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>571.747675239566</c:v>
@@ -4863,10 +4863,10 @@
                   <c:v>626.908859595739</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>656.454163908731</c:v>
+                  <c:v>656.454163908733</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>687.391895515717</c:v>
+                  <c:v>687.391895515718</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v/>
@@ -5259,130 +5259,130 @@
                   <c:v>1.48094094534583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.55073554184911</c:v>
+                  <c:v>1.5507355418491</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.62381945634738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.70034770962184</c:v>
+                  <c:v>1.70034770962183</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.78048262835798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.86439418946235</c:v>
+                  <c:v>1.86439418946234</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.95226038060624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.04426757776151</c:v>
+                  <c:v>2.0442675777615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.14061094052894</c:v>
+                  <c:v>2.14061094052893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.24149482609794</c:v>
+                  <c:v>2.24149482609793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.34713322271554</c:v>
+                  <c:v>2.34713322271553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.45775020358415</c:v>
+                  <c:v>2.45775020358414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.57358040215087</c:v>
+                  <c:v>2.57358040215086</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.69486950979649</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.82187479697984</c:v>
+                  <c:v>2.82187479697983</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.95486565894293</c:v>
+                  <c:v>2.95486565894292</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.09412418713437</c:v>
+                  <c:v>3.09412418713436</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.23994576756318</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.39263970735209</c:v>
+                  <c:v>3.39263970735208</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.55252989081943</c:v>
+                  <c:v>3.55252989081942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.71995546648117</c:v>
+                  <c:v>3.71995546648116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.89527156643043</c:v>
+                  <c:v>3.89527156643042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.07885005962025</c:v>
+                  <c:v>4.07885005962024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.27108034064748</c:v>
+                  <c:v>4.27108034064746</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.47237015571094</c:v>
+                  <c:v>4.47237015571092</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.68314646749577</c:v>
+                  <c:v>4.68314646749576</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.90385636081854</c:v>
+                  <c:v>4.90385636081853</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.13496799095409</c:v>
+                  <c:v>5.13496799095408</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3769715766556</c:v>
+                  <c:v>5.37697157665558</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.63038043997433</c:v>
+                  <c:v>5.63038043997432</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.89573209508451</c:v>
+                  <c:v>5.89573209508449</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.17358938842293</c:v>
+                  <c:v>6.17358938842295</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6.46454169256174</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.76920615634668</c:v>
+                  <c:v>6.76920615634666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.08822901395251</c:v>
+                  <c:v>7.08822901395248</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.42228695563235</c:v>
+                  <c:v>7.42228695563231</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.77208856306844</c:v>
+                  <c:v>7.77208856306839</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.13837581236886</c:v>
+                  <c:v>8.13837581236884</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8.52192564789836</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.92355163028153</c:v>
+                  <c:v>8.92355163028151</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.34410566207393</c:v>
+                  <c:v>9.34410566207389</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.78447979476167</c:v>
+                  <c:v>9.78447979476164</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.2456081209222</c:v>
+                  <c:v>10.2456081209221</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10.7284687555597</c:v>
@@ -5397,10 +5397,10 @@
                   <c:v>12.317930254812</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.8984564227136</c:v>
+                  <c:v>12.8984564227135</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.5063419460139</c:v>
+                  <c:v>13.5063419460138</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>14.1428762314085</c:v>
@@ -5409,10 +5409,10 @@
                   <c:v>14.8094094534583</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.5073554184911</c:v>
+                  <c:v>15.507355418491</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16.2381945634738</c:v>
+                  <c:v>16.2381945634737</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>17.0034770962183</c:v>
@@ -5421,37 +5421,37 @@
                   <c:v>17.8048262835798</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.6439418946235</c:v>
+                  <c:v>18.6439418946234</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>19.5226038060624</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20.4426757776151</c:v>
+                  <c:v>20.442675777615</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21.4061094052894</c:v>
+                  <c:v>21.4061094052893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22.4149482609794</c:v>
+                  <c:v>22.4149482609793</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23.4713322271554</c:v>
+                  <c:v>23.4713322271553</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24.5775020358415</c:v>
+                  <c:v>24.5775020358414</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25.7358040215087</c:v>
+                  <c:v>25.7358040215086</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>26.9486950979649</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.2187479697984</c:v>
+                  <c:v>28.2187479697983</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>29.5486565894293</c:v>
+                  <c:v>29.5486565894292</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>30.9412418713437</c:v>
@@ -5463,76 +5463,76 @@
                   <c:v>33.9263970735209</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>35.5252989081943</c:v>
+                  <c:v>35.5252989081942</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.1995546648117</c:v>
+                  <c:v>37.1995546648116</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38.9527156643043</c:v>
+                  <c:v>38.9527156643042</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40.7885005962025</c:v>
+                  <c:v>40.7885005962024</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42.7108034064748</c:v>
+                  <c:v>42.7108034064746</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44.7237015571094</c:v>
+                  <c:v>44.7237015571092</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>46.8314646749577</c:v>
+                  <c:v>46.8314646749576</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>49.0385636081854</c:v>
+                  <c:v>49.0385636081853</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>51.3496799095409</c:v>
+                  <c:v>51.3496799095408</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.769715766556</c:v>
+                  <c:v>53.7697157665558</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.3038043997433</c:v>
+                  <c:v>56.3038043997432</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>58.9573209508451</c:v>
+                  <c:v>58.957320950845</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>61.7358938842293</c:v>
+                  <c:v>61.7358938842294</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>64.6454169256174</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>67.6920615634668</c:v>
+                  <c:v>67.6920615634666</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>70.8822901395251</c:v>
+                  <c:v>70.8822901395248</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>74.2228695563235</c:v>
+                  <c:v>74.2228695563231</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>77.7208856306844</c:v>
+                  <c:v>77.7208856306839</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>81.3837581236886</c:v>
+                  <c:v>81.3837581236884</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>85.2192564789836</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89.2355163028153</c:v>
+                  <c:v>89.2355163028151</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>93.4410566207394</c:v>
+                  <c:v>93.4410566207389</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>97.8447979476167</c:v>
+                  <c:v>97.8447979476164</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>102.456081209222</c:v>
+                  <c:v>102.456081209221</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>107.284687555597</c:v>
@@ -5547,10 +5547,10 @@
                   <c:v>123.17930254812</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>128.984564227136</c:v>
+                  <c:v>128.984564227135</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>135.063419460139</c:v>
+                  <c:v>135.063419460138</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>141.428762314085</c:v>
@@ -5563,8 +5563,8 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22629357"/>
-        <c:axId val="51415006"/>
+        <c:axId val="96402673"/>
+        <c:axId val="32455870"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
@@ -5674,11 +5674,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97507386"/>
-        <c:axId val="94174839"/>
+        <c:axId val="55469960"/>
+        <c:axId val="11478354"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22629357"/>
+        <c:axId val="96402673"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5763,12 +5763,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51415006"/>
+        <c:crossAx val="32455870"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51415006"/>
+        <c:axId val="32455870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -5854,12 +5854,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22629357"/>
+        <c:crossAx val="96402673"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97507386"/>
+        <c:axId val="55469960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5934,12 +5934,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94174839"/>
+        <c:crossAx val="11478354"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94174839"/>
+        <c:axId val="11478354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -6015,7 +6015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97507386"/>
+        <c:crossAx val="55469960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6053,7 +6053,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6103,10 +6103,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12060510348267"/>
-          <c:y val="0.112258953168044"/>
-          <c:w val="0.815850718975979"/>
-          <c:h val="0.634010560146924"/>
+          <c:x val="0.120609482687038"/>
+          <c:y val="0.112265396315216"/>
+          <c:w val="0.815826621273769"/>
+          <c:h val="0.633989554037766"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6468,61 +6468,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>43.2455532033676</c:v>
+                  <c:v>43.2455532033675</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45.2836533355002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.4178061676426</c:v>
+                  <c:v>47.4178061676425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49.6525385240826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.992590571764</c:v>
+                  <c:v>51.9925905717639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.4429258748161</c:v>
+                  <c:v>54.442925874816</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>57.0087419229389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.6954811559755</c:v>
+                  <c:v>59.6954811559754</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>62.5088425080565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.4547934958035</c:v>
+                  <c:v>65.4547934958034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.5395828762322</c:v>
+                  <c:v>68.5395828762321</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>71.7697539012033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.1521581965374</c:v>
+                  <c:v>75.1521581965373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.6939702952317</c:v>
+                  <c:v>78.6939702952316</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82.4027028556066</c:v>
+                  <c:v>82.4027028556065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86.2862225966611</c:v>
+                  <c:v>86.286222596661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.3527669844384</c:v>
+                  <c:v>90.3527669844382</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>94.6109617047962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99.0698389596425</c:v>
+                  <c:v>99.0698389596424</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>103.738856625447</c:v>
@@ -6531,7 +6531,7 @@
                   <c:v>108.627918314665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>113.747394382627</c:v>
+                  <c:v>113.747394382626</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>119.108143924453</c:v>
@@ -6561,7 +6561,7 @@
                   <c:v>172.163648248134</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>180.277471017214</c:v>
+                  <c:v>180.277471017215</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>188.773686472544</c:v>
@@ -6570,28 +6570,28 @@
                   <c:v>197.67031622621</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>206.986231222714</c:v>
+                  <c:v>206.986231222713</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>216.741191766768</c:v>
+                  <c:v>216.741191766767</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>226.955889437558</c:v>
+                  <c:v>226.955889437557</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>237.65199097835</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>248.852184254565</c:v>
+                  <c:v>248.852184254566</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>260.580226377778</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>272.860994097737</c:v>
+                  <c:v>272.860994097736</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>285.720536569289</c:v>
+                  <c:v>285.720536569288</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>299.186130606123</c:v>
@@ -6609,70 +6609,70 @@
                   <c:v>359.700844158542</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>376.653022676417</c:v>
+                  <c:v>376.653022676416</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>394.404132754139</c:v>
+                  <c:v>394.404132754138</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>412.991826876116</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>432.455532033676</c:v>
+                  <c:v>432.455532033675</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>452.836533355002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>474.178061676426</c:v>
+                  <c:v>474.178061676425</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>496.525385240826</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>519.92590571764</c:v>
+                  <c:v>519.925905717639</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>544.429258748161</c:v>
+                  <c:v>544.42925874816</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>570.08741922939</c:v>
+                  <c:v>570.087419229389</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>596.954811559755</c:v>
+                  <c:v>596.954811559754</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>625.088425080564</c:v>
+                  <c:v>625.088425080563</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>654.547934958035</c:v>
+                  <c:v>654.547934958034</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>685.395828762322</c:v>
+                  <c:v>685.395828762321</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>717.697539012033</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>751.521581965374</c:v>
+                  <c:v>751.521581965373</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>786.939702952317</c:v>
+                  <c:v>786.939702952316</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>824.027028556066</c:v>
+                  <c:v>824.027028556065</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>862.862225966611</c:v>
+                  <c:v>862.862225966609</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>903.527669844384</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>946.109617047963</c:v>
+                  <c:v>946.109617047962</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>990.698389596426</c:v>
+                  <c:v>990.698389596425</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1037.38856625447</c:v>
@@ -6681,7 +6681,7 @@
                   <c:v>1086.27918314665</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1137.47394382627</c:v>
+                  <c:v>1137.47394382626</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1191.08143924453</c:v>
@@ -6699,7 +6699,7 @@
                   <c:v>1431.99485313662</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1499.48269138131</c:v>
+                  <c:v>1499.4826913813</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1570.15113345356</c:v>
@@ -6711,7 +6711,7 @@
                   <c:v>1721.63648248134</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1802.77471017214</c:v>
+                  <c:v>1802.77471017215</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1887.73686472544</c:v>
@@ -6720,28 +6720,28 @@
                   <c:v>1976.7031622621</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2069.86231222714</c:v>
+                  <c:v>2069.86231222713</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2167.41191766768</c:v>
+                  <c:v>2167.41191766767</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2269.55889437558</c:v>
+                  <c:v>2269.55889437557</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2376.5199097835</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2488.52184254565</c:v>
+                  <c:v>2488.52184254566</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2605.80226377778</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2728.60994097737</c:v>
+                  <c:v>2728.60994097736</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2857.20536569289</c:v>
+                  <c:v>2857.20536569288</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>2991.86130606123</c:v>
@@ -6759,16 +6759,16 @@
                   <c:v>3597.00844158542</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3766.53022676417</c:v>
+                  <c:v>3766.53022676416</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3944.04132754139</c:v>
+                  <c:v>3944.04132754138</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>4129.91826876116</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4324.55532033676</c:v>
+                  <c:v>4324.55532033675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,10 +7134,10 @@
                   <c:v>13.6754446796632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.3199485313662</c:v>
+                  <c:v>14.3199485313661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.9948269138131</c:v>
+                  <c:v>14.994826913813</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15.7015113345356</c:v>
@@ -7146,121 +7146,121 @@
                   <c:v>16.441500765937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.2163648248134</c:v>
+                  <c:v>17.2163648248133</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18.0277471017214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.8773686472544</c:v>
+                  <c:v>18.8773686472543</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>19.767031622621</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.6986231222714</c:v>
+                  <c:v>20.6986231222713</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21.6741191766768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.6955889437558</c:v>
+                  <c:v>22.6955889437557</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.765199097835</c:v>
+                  <c:v>23.7651990978349</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>24.8852184254565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.0580226377778</c:v>
+                  <c:v>26.0580226377777</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.2860994097737</c:v>
+                  <c:v>27.2860994097736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.5720536569289</c:v>
+                  <c:v>28.5720536569288</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>29.9186130606123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.3286338538557</c:v>
+                  <c:v>31.3286338538555</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>32.8051068798061</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.351163935706</c:v>
+                  <c:v>34.3511639357059</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.9700844158542</c:v>
+                  <c:v>35.9700844158541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.6653022676417</c:v>
+                  <c:v>37.6653022676416</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.4404132754139</c:v>
+                  <c:v>39.4404132754138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41.2991826876116</c:v>
+                  <c:v>41.2991826876115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.2455532033676</c:v>
+                  <c:v>43.2455532033675</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.2836533355002</c:v>
+                  <c:v>45.2836533355001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.4178061676426</c:v>
+                  <c:v>47.4178061676425</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.6525385240826</c:v>
+                  <c:v>49.6525385240825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.992590571764</c:v>
+                  <c:v>51.9925905717638</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.4429258748161</c:v>
+                  <c:v>54.4429258748159</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57.0087419229389</c:v>
+                  <c:v>57.0087419229391</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59.6954811559755</c:v>
+                  <c:v>59.6954811559754</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.5088425080565</c:v>
+                  <c:v>62.5088425080563</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65.4547934958035</c:v>
+                  <c:v>65.4547934958032</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68.5395828762322</c:v>
+                  <c:v>68.5395828762318</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>71.7697539012033</c:v>
+                  <c:v>71.7697539012029</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>75.1521581965374</c:v>
+                  <c:v>75.1521581965372</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78.6939702952317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82.4027028556066</c:v>
+                  <c:v>82.4027028556064</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>86.2862225966611</c:v>
+                  <c:v>86.2862225966606</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.3527669844384</c:v>
+                  <c:v>90.3527669844381</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>94.6109617047962</c:v>
+                  <c:v>94.6109617047961</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>99.0698389596426</c:v>
+                  <c:v>99.0698389596425</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>103.738856625447</c:v>
@@ -7269,13 +7269,13 @@
                   <c:v>108.627918314665</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>113.747394382627</c:v>
+                  <c:v>113.747394382626</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>119.108143924453</c:v>
+                  <c:v>119.108143924452</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>124.72153780865</c:v>
+                  <c:v>124.721537808649</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>130.599482796247</c:v>
@@ -7284,10 +7284,10 @@
                   <c:v>136.754446796632</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>143.199485313662</c:v>
+                  <c:v>143.199485313661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>149.948269138131</c:v>
+                  <c:v>149.94826913813</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>157.015113345356</c:v>
@@ -7296,121 +7296,121 @@
                   <c:v>164.41500765937</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>172.163648248134</c:v>
+                  <c:v>172.163648248133</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>180.277471017214</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.773686472544</c:v>
+                  <c:v>188.773686472543</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>197.67031622621</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>206.986231222714</c:v>
+                  <c:v>206.986231222713</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>216.741191766768</c:v>
+                  <c:v>216.741191766767</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>226.955889437558</c:v>
+                  <c:v>226.955889437557</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>237.65199097835</c:v>
+                  <c:v>237.651990978349</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>248.852184254565</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>260.580226377778</c:v>
+                  <c:v>260.580226377777</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>272.860994097737</c:v>
+                  <c:v>272.860994097736</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>285.720536569289</c:v>
+                  <c:v>285.720536569288</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>299.186130606123</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>313.286338538557</c:v>
+                  <c:v>313.286338538556</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>328.051068798061</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>343.51163935706</c:v>
+                  <c:v>343.511639357059</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>359.700844158542</c:v>
+                  <c:v>359.700844158541</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>376.653022676417</c:v>
+                  <c:v>376.653022676416</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>394.404132754139</c:v>
+                  <c:v>394.404132754138</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>412.991826876116</c:v>
+                  <c:v>412.991826876115</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>432.455532033676</c:v>
+                  <c:v>432.455532033675</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>452.836533355002</c:v>
+                  <c:v>452.836533355001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>474.178061676426</c:v>
+                  <c:v>474.178061676425</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>496.525385240826</c:v>
+                  <c:v>496.525385240825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>519.92590571764</c:v>
+                  <c:v>519.925905717638</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>544.429258748161</c:v>
+                  <c:v>544.42925874816</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>570.08741922939</c:v>
+                  <c:v>570.087419229391</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>596.954811559755</c:v>
+                  <c:v>596.954811559754</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>625.088425080564</c:v>
+                  <c:v>625.088425080563</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>654.547934958035</c:v>
+                  <c:v>654.547934958032</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>685.395828762322</c:v>
+                  <c:v>685.395828762318</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>717.697539012033</c:v>
+                  <c:v>717.697539012029</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>751.521581965374</c:v>
+                  <c:v>751.521581965373</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>786.939702952317</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>824.027028556066</c:v>
+                  <c:v>824.027028556065</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>862.862225966611</c:v>
+                  <c:v>862.862225966606</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>903.527669844384</c:v>
+                  <c:v>903.527669844381</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>946.109617047962</c:v>
+                  <c:v>946.109617047961</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>990.698389596426</c:v>
+                  <c:v>990.698389596425</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1037.38856625447</c:v>
@@ -7419,13 +7419,13 @@
                   <c:v>1086.27918314665</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1137.47394382627</c:v>
+                  <c:v>1137.47394382626</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1191.08143924453</c:v>
+                  <c:v>1191.08143924452</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1247.2153780865</c:v>
+                  <c:v>1247.21537808649</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1305.99482796247</c:v>
@@ -7794,61 +7794,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.32455532033676</c:v>
+                  <c:v>4.32455532033675</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.52836533355002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.74178061676426</c:v>
+                  <c:v>4.74178061676425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.96525385240826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1992590571764</c:v>
+                  <c:v>5.19925905717639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.44429258748161</c:v>
+                  <c:v>5.4442925874816</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.70087419229389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.96954811559755</c:v>
+                  <c:v>5.96954811559754</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.25088425080565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.54547934958035</c:v>
+                  <c:v>6.54547934958034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.85395828762322</c:v>
+                  <c:v>6.85395828762321</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.17697539012033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.51521581965374</c:v>
+                  <c:v>7.51521581965373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.86939702952317</c:v>
+                  <c:v>7.86939702952316</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.24027028556066</c:v>
+                  <c:v>8.24027028556065</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8.6286222596661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.03527669844384</c:v>
+                  <c:v>9.03527669844382</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9.46109617047962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.90698389596425</c:v>
+                  <c:v>9.90698389596424</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>10.3738856625447</c:v>
@@ -7887,7 +7887,7 @@
                   <c:v>17.2163648248134</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.0277471017214</c:v>
+                  <c:v>18.0277471017215</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>18.8773686472544</c:v>
@@ -7896,28 +7896,28 @@
                   <c:v>19.767031622621</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.6986231222714</c:v>
+                  <c:v>20.6986231222713</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.6741191766768</c:v>
+                  <c:v>21.6741191766767</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.6955889437558</c:v>
+                  <c:v>22.6955889437557</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>23.765199097835</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24.8852184254565</c:v>
+                  <c:v>24.8852184254566</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>26.0580226377778</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.2860994097737</c:v>
+                  <c:v>27.2860994097736</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.5720536569289</c:v>
+                  <c:v>28.5720536569288</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>29.9186130606123</c:v>
@@ -7935,67 +7935,67 @@
                   <c:v>35.9700844158542</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>37.6653022676417</c:v>
+                  <c:v>37.6653022676416</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>39.4404132754139</c:v>
+                  <c:v>39.4404132754138</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>41.2991826876116</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43.2455532033676</c:v>
+                  <c:v>43.2455532033675</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45.2836533355002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47.4178061676426</c:v>
+                  <c:v>47.4178061676425</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>49.6525385240826</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51.992590571764</c:v>
+                  <c:v>51.9925905717639</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>54.4429258748161</c:v>
+                  <c:v>54.442925874816</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57.008741922939</c:v>
+                  <c:v>57.0087419229389</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>59.6954811559755</c:v>
+                  <c:v>59.6954811559754</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>62.5088425080564</c:v>
+                  <c:v>62.5088425080563</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>65.4547934958035</c:v>
+                  <c:v>65.4547934958034</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>68.5395828762322</c:v>
+                  <c:v>68.5395828762321</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>71.7697539012033</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>75.1521581965374</c:v>
+                  <c:v>75.1521581965373</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>78.6939702952317</c:v>
+                  <c:v>78.6939702952316</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>82.4027028556066</c:v>
+                  <c:v>82.4027028556065</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>86.2862225966611</c:v>
+                  <c:v>86.286222596661</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>90.3527669844384</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>94.6109617047963</c:v>
+                  <c:v>94.6109617047962</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>99.0698389596426</c:v>
@@ -8037,7 +8037,7 @@
                   <c:v>172.163648248134</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>180.277471017214</c:v>
+                  <c:v>180.277471017215</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>188.773686472544</c:v>
@@ -8046,28 +8046,28 @@
                   <c:v>197.67031622621</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>206.986231222714</c:v>
+                  <c:v>206.986231222713</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>216.741191766768</c:v>
+                  <c:v>216.741191766767</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>226.955889437558</c:v>
+                  <c:v>226.955889437557</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>237.65199097835</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>248.852184254565</c:v>
+                  <c:v>248.852184254566</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>260.580226377778</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>272.860994097737</c:v>
+                  <c:v>272.860994097736</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>285.720536569289</c:v>
+                  <c:v>285.720536569288</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>299.186130606123</c:v>
@@ -8085,24 +8085,24 @@
                   <c:v>359.700844158542</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>376.653022676417</c:v>
+                  <c:v>376.653022676416</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>394.404132754139</c:v>
+                  <c:v>394.404132754138</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>412.991826876116</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>432.455532033676</c:v>
+                  <c:v>432.455532033675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47843415"/>
-        <c:axId val="90185779"/>
+        <c:axId val="84806693"/>
+        <c:axId val="36116928"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
@@ -8466,10 +8466,10 @@
                   <c:v>1.36754446796632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.43199485313662</c:v>
+                  <c:v>1.43199485313661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.49948269138131</c:v>
+                  <c:v>1.4994826913813</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.57015113345356</c:v>
@@ -8478,118 +8478,118 @@
                   <c:v>1.6441500765937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.72163648248134</c:v>
+                  <c:v>1.72163648248133</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.80277471017214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.88773686472544</c:v>
+                  <c:v>1.88773686472543</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.9767031622621</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.06986231222714</c:v>
+                  <c:v>2.06986231222713</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.16741191766768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.26955889437558</c:v>
+                  <c:v>2.26955889437557</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3765199097835</c:v>
+                  <c:v>2.37651990978349</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.48852184254565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.60580226377778</c:v>
+                  <c:v>2.60580226377777</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.72860994097737</c:v>
+                  <c:v>2.72860994097736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.85720536569289</c:v>
+                  <c:v>2.85720536569288</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.99186130606123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.13286338538557</c:v>
+                  <c:v>3.13286338538555</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.28051068798061</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4351163935706</c:v>
+                  <c:v>3.43511639357059</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.59700844158542</c:v>
+                  <c:v>3.59700844158541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.76653022676417</c:v>
+                  <c:v>3.76653022676416</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.94404132754139</c:v>
+                  <c:v>3.94404132754138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.12991826876116</c:v>
+                  <c:v>4.12991826876115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.32455532033676</c:v>
+                  <c:v>4.32455532033675</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.52836533355002</c:v>
+                  <c:v>4.52836533355001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.74178061676426</c:v>
+                  <c:v>4.74178061676425</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.96525385240826</c:v>
+                  <c:v>4.96525385240825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1992590571764</c:v>
+                  <c:v>5.19925905717638</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.44429258748161</c:v>
+                  <c:v>5.44429258748159</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.70087419229389</c:v>
+                  <c:v>5.70087419229391</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.96954811559755</c:v>
+                  <c:v>5.96954811559754</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.25088425080565</c:v>
+                  <c:v>6.25088425080563</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.54547934958035</c:v>
+                  <c:v>6.54547934958032</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.85395828762322</c:v>
+                  <c:v>6.85395828762318</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.17697539012033</c:v>
+                  <c:v>7.17697539012029</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.51521581965374</c:v>
+                  <c:v>7.51521581965372</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7.86939702952317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.24027028556066</c:v>
+                  <c:v>8.24027028556064</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.6286222596661</c:v>
+                  <c:v>8.62862225966606</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.03527669844384</c:v>
+                  <c:v>9.03527669844381</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.46109617047962</c:v>
+                  <c:v>9.46109617047961</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9.90698389596425</c:v>
@@ -8601,13 +8601,13 @@
                   <c:v>10.8627918314665</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.3747394382627</c:v>
+                  <c:v>11.3747394382626</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.9108143924453</c:v>
+                  <c:v>11.9108143924452</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.472153780865</c:v>
+                  <c:v>12.4721537808649</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>13.0599482796247</c:v>
@@ -8616,10 +8616,10 @@
                   <c:v>13.6754446796632</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.3199485313662</c:v>
+                  <c:v>14.3199485313661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.9948269138131</c:v>
+                  <c:v>14.994826913813</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>15.7015113345356</c:v>
@@ -8628,121 +8628,121 @@
                   <c:v>16.441500765937</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17.2163648248134</c:v>
+                  <c:v>17.2163648248133</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>18.0277471017214</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.8773686472544</c:v>
+                  <c:v>18.8773686472543</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>19.767031622621</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.6986231222714</c:v>
+                  <c:v>20.6986231222713</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.6741191766768</c:v>
+                  <c:v>21.6741191766767</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>22.6955889437558</c:v>
+                  <c:v>22.6955889437557</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>23.765199097835</c:v>
+                  <c:v>23.7651990978349</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>24.8852184254565</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>26.0580226377778</c:v>
+                  <c:v>26.0580226377777</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.2860994097737</c:v>
+                  <c:v>27.2860994097736</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>28.5720536569289</c:v>
+                  <c:v>28.5720536569288</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>29.9186130606123</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>31.3286338538557</c:v>
+                  <c:v>31.3286338538556</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>32.8051068798061</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>34.351163935706</c:v>
+                  <c:v>34.3511639357059</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>35.9700844158542</c:v>
+                  <c:v>35.9700844158541</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>37.6653022676417</c:v>
+                  <c:v>37.6653022676416</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>39.4404132754139</c:v>
+                  <c:v>39.4404132754138</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41.2991826876116</c:v>
+                  <c:v>41.2991826876115</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43.2455532033676</c:v>
+                  <c:v>43.2455532033675</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.2836533355002</c:v>
+                  <c:v>45.2836533355001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>47.4178061676426</c:v>
+                  <c:v>47.4178061676425</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>49.6525385240826</c:v>
+                  <c:v>49.6525385240825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>51.992590571764</c:v>
+                  <c:v>51.9925905717638</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>54.4429258748161</c:v>
+                  <c:v>54.442925874816</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>57.008741922939</c:v>
+                  <c:v>57.0087419229391</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>59.6954811559755</c:v>
+                  <c:v>59.6954811559754</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>62.5088425080564</c:v>
+                  <c:v>62.5088425080563</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>65.4547934958035</c:v>
+                  <c:v>65.4547934958032</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>68.5395828762322</c:v>
+                  <c:v>68.5395828762318</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>71.7697539012033</c:v>
+                  <c:v>71.7697539012029</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>75.1521581965374</c:v>
+                  <c:v>75.1521581965372</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>78.6939702952317</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>82.4027028556066</c:v>
+                  <c:v>82.4027028556064</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>86.2862225966611</c:v>
+                  <c:v>86.2862225966606</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>90.3527669844384</c:v>
+                  <c:v>90.3527669844381</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>94.6109617047962</c:v>
+                  <c:v>94.6109617047961</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99.0698389596426</c:v>
+                  <c:v>99.0698389596425</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>103.738856625447</c:v>
@@ -8751,13 +8751,13 @@
                   <c:v>108.627918314665</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>113.747394382627</c:v>
+                  <c:v>113.747394382626</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>119.108143924453</c:v>
+                  <c:v>119.108143924452</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>124.72153780865</c:v>
+                  <c:v>124.721537808649</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>130.599482796247</c:v>
@@ -8887,11 +8887,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61728150"/>
-        <c:axId val="39303125"/>
+        <c:axId val="63650687"/>
+        <c:axId val="91860300"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47843415"/>
+        <c:axId val="84806693"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8976,12 +8976,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90185779"/>
+        <c:crossAx val="36116928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90185779"/>
+        <c:axId val="36116928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -9067,12 +9067,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47843415"/>
+        <c:crossAx val="84806693"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61728150"/>
+        <c:axId val="63650687"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9147,12 +9147,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39303125"/>
+        <c:crossAx val="91860300"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39303125"/>
+        <c:axId val="91860300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -9228,7 +9228,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61728150"/>
+        <c:crossAx val="63650687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9277,9 +9277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
+      <xdr:colOff>540000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9289,7 +9289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1718280" y="716040"/>
-          <a:ext cx="4937040" cy="4129560"/>
+          <a:ext cx="4936680" cy="4129200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9584,9 +9584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>255240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9595,7 +9595,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="8665200" cy="6260400"/>
+        <a:ext cx="8673840" cy="6260040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9619,9 +9619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9630,7 +9630,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="8673120" cy="6280920"/>
+        <a:ext cx="8681760" cy="6280560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9654,9 +9654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9665,7 +9665,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="8673120" cy="6280920"/>
+        <a:ext cx="8681760" cy="6280560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9689,9 +9689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>252360</xdr:colOff>
+      <xdr:colOff>252000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9700,7 +9700,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="8661960" cy="6272280"/>
+        <a:ext cx="8670600" cy="6271920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9747,8 +9747,8 @@
   </sheetPr>
   <dimension ref="A4:AQ109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE3" activeCellId="0" sqref="AE3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9812,52 +9812,52 @@
       </c>
       <c r="W6" s="0" t="n">
         <f aca="false">C20</f>
-        <v>3.31717987264169</v>
+        <v>1.93757515806049</v>
       </c>
       <c r="X6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="AA6" s="0" t="n">
         <f aca="false">C28</f>
-        <v>30.4577424669828</v>
+        <v>17.790462814919</v>
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">E28</f>
-        <v>3.04577424669828</v>
+        <v>1.7790462814919</v>
       </c>
       <c r="AC6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="AF6" s="0" t="n">
         <f aca="false">C36</f>
-        <v>59.386668723651</v>
+        <v>34.6879392908167</v>
       </c>
       <c r="AG6" s="0" t="n">
         <f aca="false">E36</f>
-        <v>12.7944699223665</v>
+        <v>7.47328997338555</v>
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">G36</f>
-        <v>2.7564849841316</v>
+        <v>1.61007151673292</v>
       </c>
       <c r="AI6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="AL6" s="0" t="n">
         <f aca="false">C44</f>
-        <v>80.4932285856339</v>
+        <v>47.0163470440346</v>
       </c>
       <c r="AM6" s="0" t="n">
         <f aca="false">E44</f>
-        <v>25.4541938551177</v>
+        <v>14.8678743920074</v>
       </c>
       <c r="AN6" s="0" t="n">
         <f aca="false">G44</f>
-        <v>8.04932285856339</v>
+        <v>4.70163470440347</v>
       </c>
       <c r="AO6" s="0" t="n">
         <f aca="false">I44</f>
-        <v>2.54541938551177</v>
+        <v>1.48678743920074</v>
       </c>
       <c r="AP6" s="0" t="s">
         <v>9</v>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="U9" s="0" t="n">
         <f aca="false">300/(T9*SQRT($D$10))</f>
-        <v>670.070334273622</v>
+        <v>391.390181928218</v>
       </c>
       <c r="W9" s="0" t="n">
         <f aca="false">(W$6/$U9)*360</f>
@@ -9988,11 +9988,11 @@
       </c>
       <c r="AF9" s="0" t="n">
         <f aca="false">(AF$6/$U9)*360</f>
-        <v>31.9059054654167</v>
+        <v>31.9059054654168</v>
       </c>
       <c r="AG9" s="0" t="n">
         <f aca="false">(AG$6/$U9)*360</f>
-        <v>6.87391895515717</v>
+        <v>6.87391895515718</v>
       </c>
       <c r="AH9" s="0" t="n">
         <f aca="false">(AH$6/$U9)*360</f>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="AL9" s="0" t="n">
         <f aca="false">(AL$6/$U9)*360</f>
-        <v>43.2455532033676</v>
+        <v>43.2455532033675</v>
       </c>
       <c r="AM9" s="0" t="n">
         <f aca="false">(AM$6/$U9)*360</f>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="AN9" s="0" t="n">
         <f aca="false">(AN$6/$U9)*360</f>
-        <v>4.32455532033676</v>
+        <v>4.32455532033675</v>
       </c>
       <c r="AO9" s="0" t="n">
         <f aca="false">(AO$6/$U9)*360</f>
@@ -10029,12 +10029,12 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>3.48</v>
+        <v>10.2</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>1200</v>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="U10" s="0" t="n">
         <f aca="false">300/(T10*SQRT($D$10))</f>
-        <v>639.912201344214</v>
+        <v>373.774721983029</v>
       </c>
       <c r="W10" s="0" t="n">
         <f aca="false">(W$6/$U10)*360</f>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">(AB$6/$U10)*360</f>
-        <v>1.71348307862874</v>
+        <v>1.71348307862875</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="false">C12</f>
@@ -10091,11 +10091,11 @@
       </c>
       <c r="AG10" s="0" t="n">
         <f aca="false">(AG$6/$U10)*360</f>
-        <v>7.19787677493329</v>
+        <v>7.1978767749333</v>
       </c>
       <c r="AH10" s="0" t="n">
         <f aca="false">(AH$6/$U10)*360</f>
-        <v>1.55073554184911</v>
+        <v>1.5507355418491</v>
       </c>
       <c r="AI10" s="0" t="n">
         <f aca="false">C12</f>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="AM10" s="0" t="n">
         <f aca="false">(AM$6/$U10)*360</f>
-        <v>14.3199485313662</v>
+        <v>14.3199485313661</v>
       </c>
       <c r="AN10" s="0" t="n">
         <f aca="false">(AN$6/$U10)*360</f>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="AO10" s="0" t="n">
         <f aca="false">(AO$6/$U10)*360</f>
-        <v>1.43199485313662</v>
+        <v>1.43199485313661</v>
       </c>
       <c r="AP10" s="0" t="n">
         <f aca="false">C12</f>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="U11" s="0" t="n">
         <f aca="false">300/(T11*SQRT($D$10))</f>
-        <v>611.111407988381</v>
+        <v>356.952088336017</v>
       </c>
       <c r="W11" s="0" t="n">
         <f aca="false">(W$6/$U11)*360</f>
@@ -10201,19 +10201,19 @@
       </c>
       <c r="AL11" s="0" t="n">
         <f aca="false">(AL$6/$U11)*360</f>
-        <v>47.4178061676426</v>
+        <v>47.4178061676425</v>
       </c>
       <c r="AM11" s="0" t="n">
         <f aca="false">(AM$6/$U11)*360</f>
-        <v>14.9948269138131</v>
+        <v>14.994826913813</v>
       </c>
       <c r="AN11" s="0" t="n">
         <f aca="false">(AN$6/$U11)*360</f>
-        <v>4.74178061676426</v>
+        <v>4.74178061676425</v>
       </c>
       <c r="AO11" s="0" t="n">
         <f aca="false">(AO$6/$U11)*360</f>
-        <v>1.49948269138131</v>
+        <v>1.4994826913813</v>
       </c>
       <c r="AP11" s="0" t="n">
         <f aca="false">D43</f>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="U12" s="0" t="n">
         <f aca="false">300/(T12*SQRT($D$10))</f>
-        <v>583.606863862025</v>
+        <v>340.886597925764</v>
       </c>
       <c r="W12" s="0" t="n">
         <f aca="false">(W$6/$U12)*360</f>
@@ -10282,15 +10282,15 @@
       </c>
       <c r="AF12" s="0" t="n">
         <f aca="false">(AF$6/$U12)*360</f>
-        <v>36.6328809072554</v>
+        <v>36.6328809072555</v>
       </c>
       <c r="AG12" s="0" t="n">
         <f aca="false">(AG$6/$U12)*360</f>
-        <v>7.89231494223978</v>
+        <v>7.89231494223979</v>
       </c>
       <c r="AH12" s="0" t="n">
         <f aca="false">(AH$6/$U12)*360</f>
-        <v>1.70034770962184</v>
+        <v>1.70034770962183</v>
       </c>
       <c r="AI12" s="0" t="n">
         <f aca="false">D35</f>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="U13" s="0" t="n">
         <f aca="false">300/(T13*SQRT($D$10))</f>
-        <v>557.340228139455</v>
+        <v>325.544173693176</v>
       </c>
       <c r="W13" s="0" t="n">
         <f aca="false">(W$6/$U13)*360</f>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="AG13" s="0" t="n">
         <f aca="false">(AG$6/$U13)*360</f>
-        <v>8.26426828622795</v>
+        <v>8.26426828622796</v>
       </c>
       <c r="AH13" s="0" t="n">
         <f aca="false">(AH$6/$U13)*360</f>
@@ -10376,7 +10376,7 @@
       </c>
       <c r="AL13" s="0" t="n">
         <f aca="false">(AL$6/$U13)*360</f>
-        <v>51.992590571764</v>
+        <v>51.9925905717639</v>
       </c>
       <c r="AM13" s="0" t="n">
         <f aca="false">(AM$6/$U13)*360</f>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="AN13" s="0" t="n">
         <f aca="false">(AN$6/$U13)*360</f>
-        <v>5.1992590571764</v>
+        <v>5.19925905717639</v>
       </c>
       <c r="AO13" s="0" t="n">
         <f aca="false">(AO$6/$U13)*360</f>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="U14" s="0" t="n">
         <f aca="false">300/(T14*SQRT($D$10))</f>
-        <v>532.255785764675</v>
+        <v>310.892272299457</v>
       </c>
       <c r="W14" s="0" t="n">
         <f aca="false">(W$6/$U14)*360</f>
@@ -10432,15 +10432,15 @@
       </c>
       <c r="AF14" s="0" t="n">
         <f aca="false">(AF$6/$U14)*360</f>
-        <v>40.1671551767155</v>
+        <v>40.1671551767156</v>
       </c>
       <c r="AG14" s="0" t="n">
         <f aca="false">(AG$6/$U14)*360</f>
-        <v>8.65375125126097</v>
+        <v>8.65375125126098</v>
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">(AH$6/$U14)*360</f>
-        <v>1.86439418946235</v>
+        <v>1.86439418946234</v>
       </c>
       <c r="AI14" s="0" t="n">
         <f aca="false">F35</f>
@@ -10451,19 +10451,19 @@
       </c>
       <c r="AL14" s="0" t="n">
         <f aca="false">(AL$6/$U14)*360</f>
-        <v>54.4429258748161</v>
+        <v>54.442925874816</v>
       </c>
       <c r="AM14" s="0" t="n">
         <f aca="false">(AM$6/$U14)*360</f>
-        <v>17.2163648248134</v>
+        <v>17.2163648248133</v>
       </c>
       <c r="AN14" s="0" t="n">
         <f aca="false">(AN$6/$U14)*360</f>
-        <v>5.44429258748161</v>
+        <v>5.4442925874816</v>
       </c>
       <c r="AO14" s="0" t="n">
         <f aca="false">(AO$6/$U14)*360</f>
-        <v>1.72163648248134</v>
+        <v>1.72163648248133</v>
       </c>
       <c r="AP14" s="0" t="n">
         <f aca="false">F43</f>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="U15" s="0" t="n">
         <f aca="false">300/(T15*SQRT($D$10))</f>
-        <v>508.300329272279</v>
+        <v>296.899815097339</v>
       </c>
       <c r="W15" s="0" t="n">
         <f aca="false">(W$6/$U15)*360</f>
@@ -10500,11 +10500,11 @@
       </c>
       <c r="AF15" s="0" t="n">
         <f aca="false">(AF$6/$U15)*360</f>
-        <v>42.0601748795293</v>
+        <v>42.0601748795294</v>
       </c>
       <c r="AG15" s="0" t="n">
         <f aca="false">(AG$6/$U15)*360</f>
-        <v>9.06158998292656</v>
+        <v>9.06158998292658</v>
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">(AH$6/$U15)*360</f>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="U16" s="0" t="n">
         <f aca="false">300/(T16*SQRT($D$10))</f>
-        <v>485.423045927281</v>
+        <v>283.537122209094</v>
       </c>
       <c r="W16" s="0" t="n">
         <f aca="false">(W$6/$U16)*360</f>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="AF16" s="0" t="n">
         <f aca="false">(AF$6/$U16)*360</f>
-        <v>44.0424098523685</v>
+        <v>44.0424098523684</v>
       </c>
       <c r="AG16" s="0" t="n">
         <f aca="false">(AG$6/$U16)*360</f>
@@ -10576,7 +10576,7 @@
       </c>
       <c r="AH16" s="0" t="n">
         <f aca="false">(AH$6/$U16)*360</f>
-        <v>2.04426757776151</v>
+        <v>2.0442675777615</v>
       </c>
       <c r="AI16" s="0" t="n">
         <f aca="false">D12</f>
@@ -10587,19 +10587,19 @@
       </c>
       <c r="AL16" s="0" t="n">
         <f aca="false">(AL$6/$U16)*360</f>
-        <v>59.6954811559755</v>
+        <v>59.6954811559754</v>
       </c>
       <c r="AM16" s="0" t="n">
         <f aca="false">(AM$6/$U16)*360</f>
-        <v>18.8773686472544</v>
+        <v>18.8773686472543</v>
       </c>
       <c r="AN16" s="0" t="n">
         <f aca="false">(AN$6/$U16)*360</f>
-        <v>5.96954811559755</v>
+        <v>5.96954811559754</v>
       </c>
       <c r="AO16" s="0" t="n">
         <f aca="false">(AO$6/$U16)*360</f>
-        <v>1.88773686472544</v>
+        <v>1.88773686472543</v>
       </c>
       <c r="AP16" s="0" t="n">
         <f aca="false">H43</f>
@@ -10620,11 +10620,11 @@
       </c>
       <c r="U17" s="0" t="n">
         <f aca="false">300/(T17*SQRT($D$10))</f>
-        <v>463.575409944496</v>
+        <v>270.775849571538</v>
       </c>
       <c r="W17" s="0" t="n">
         <f aca="false">(W$6/$U17)*360</f>
-        <v>2.5760312745967</v>
+        <v>2.57603127459671</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">(AA$6/$U17)*360</f>
@@ -10636,15 +10636,15 @@
       </c>
       <c r="AF17" s="0" t="n">
         <f aca="false">(AF$6/$U17)*360</f>
-        <v>46.1180646813732</v>
+        <v>46.1180646813733</v>
       </c>
       <c r="AG17" s="0" t="n">
         <f aca="false">(AG$6/$U17)*360</f>
-        <v>9.93583583866847</v>
+        <v>9.93583583866849</v>
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">(AH$6/$U17)*360</f>
-        <v>2.14061094052894</v>
+        <v>2.14061094052893</v>
       </c>
       <c r="AL17" s="0" t="n">
         <f aca="false">(AL$6/$U17)*360</f>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="U18" s="0" t="n">
         <f aca="false">300/(T18*SQRT($D$10))</f>
-        <v>442.711079558842</v>
+        <v>258.588928814475</v>
       </c>
       <c r="W18" s="0" t="n">
         <f aca="false">(W$6/$U18)*360</f>
@@ -10717,23 +10717,23 @@
       </c>
       <c r="AH18" s="0" t="n">
         <f aca="false">(AH$6/$U18)*360</f>
-        <v>2.24149482609794</v>
+        <v>2.24149482609793</v>
       </c>
       <c r="AL18" s="0" t="n">
         <f aca="false">(AL$6/$U18)*360</f>
-        <v>65.4547934958035</v>
+        <v>65.4547934958034</v>
       </c>
       <c r="AM18" s="0" t="n">
         <f aca="false">(AM$6/$U18)*360</f>
-        <v>20.6986231222714</v>
+        <v>20.6986231222713</v>
       </c>
       <c r="AN18" s="0" t="n">
         <f aca="false">(AN$6/$U18)*360</f>
-        <v>6.54547934958035</v>
+        <v>6.54547934958034</v>
       </c>
       <c r="AO18" s="0" t="n">
         <f aca="false">(AO$6/$U18)*360</f>
-        <v>2.06986231222714</v>
+        <v>2.06986231222713</v>
       </c>
       <c r="AP18" s="0" t="n">
         <f aca="false">D12</f>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="U19" s="0" t="n">
         <f aca="false">300/(T19*SQRT($D$10))</f>
-        <v>422.78579872824</v>
+        <v>246.950509845049</v>
       </c>
       <c r="W19" s="0" t="n">
         <f aca="false">(W$6/$U19)*360</f>
@@ -10796,11 +10796,11 @@
       </c>
       <c r="AH19" s="0" t="n">
         <f aca="false">(AH$6/$U19)*360</f>
-        <v>2.34713322271554</v>
+        <v>2.34713322271553</v>
       </c>
       <c r="AL19" s="0" t="n">
         <f aca="false">(AL$6/$U19)*360</f>
-        <v>68.5395828762322</v>
+        <v>68.5395828762321</v>
       </c>
       <c r="AM19" s="0" t="n">
         <f aca="false">(AM$6/$U19)*360</f>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="AN19" s="0" t="n">
         <f aca="false">(AN$6/$U19)*360</f>
-        <v>6.85395828762322</v>
+        <v>6.85395828762321</v>
       </c>
       <c r="AO19" s="0" t="n">
         <f aca="false">(AO$6/$U19)*360</f>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="C20" s="5" t="n">
         <f aca="false">300/C19/4/SQRT(D10)</f>
-        <v>3.31717987264169</v>
+        <v>1.93757515806049</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
@@ -10836,11 +10836,11 @@
       </c>
       <c r="U20" s="0" t="n">
         <f aca="false">300/(T20*SQRT($D$10))</f>
-        <v>403.75730326062</v>
+        <v>235.835906016235</v>
       </c>
       <c r="W20" s="0" t="n">
         <f aca="false">(W$6/$U20)*360</f>
-        <v>2.95767963701743</v>
+        <v>2.95767963701744</v>
       </c>
       <c r="AA20" s="0" t="n">
         <f aca="false">(AA$6/$U20)*360</f>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="AF20" s="0" t="n">
         <f aca="false">(AF$6/$U20)*360</f>
-        <v>52.9506229803461</v>
+        <v>52.9506229803462</v>
       </c>
       <c r="AG20" s="0" t="n">
         <f aca="false">(AG$6/$U20)*360</f>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="AH20" s="0" t="n">
         <f aca="false">(AH$6/$U20)*360</f>
-        <v>2.45775020358415</v>
+        <v>2.45775020358414</v>
       </c>
       <c r="AL20" s="0" t="n">
         <f aca="false">(AL$6/$U20)*360</f>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="AM20" s="0" t="n">
         <f aca="false">(AM$6/$U20)*360</f>
-        <v>22.6955889437558</v>
+        <v>22.6955889437557</v>
       </c>
       <c r="AN20" s="0" t="n">
         <f aca="false">(AN$6/$U20)*360</f>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="AO20" s="0" t="n">
         <f aca="false">(AO$6/$U20)*360</f>
-        <v>2.26955889437558</v>
+        <v>2.26955889437557</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="U21" s="0" t="n">
         <f aca="false">300/(T21*SQRT($D$10))</f>
-        <v>385.585231165901</v>
+        <v>225.221541763153</v>
       </c>
       <c r="W21" s="0" t="n">
         <f aca="false">(W$6/$U21)*360</f>
@@ -10924,23 +10924,23 @@
       </c>
       <c r="AH21" s="0" t="n">
         <f aca="false">(AH$6/$U21)*360</f>
-        <v>2.57358040215087</v>
+        <v>2.57358040215086</v>
       </c>
       <c r="AL21" s="0" t="n">
         <f aca="false">(AL$6/$U21)*360</f>
-        <v>75.1521581965374</v>
+        <v>75.1521581965373</v>
       </c>
       <c r="AM21" s="0" t="n">
         <f aca="false">(AM$6/$U21)*360</f>
-        <v>23.765199097835</v>
+        <v>23.7651990978349</v>
       </c>
       <c r="AN21" s="0" t="n">
         <f aca="false">(AN$6/$U21)*360</f>
-        <v>7.51521581965374</v>
+        <v>7.51521581965373</v>
       </c>
       <c r="AO21" s="0" t="n">
         <f aca="false">(AO$6/$U21)*360</f>
-        <v>2.3765199097835</v>
+        <v>2.37651990978349</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="U22" s="0" t="n">
         <f aca="false">300/(T22*SQRT($D$10))</f>
-        <v>368.231037042797</v>
+        <v>215.084902596128</v>
       </c>
       <c r="W22" s="0" t="n">
         <f aca="false">(W$6/$U22)*360</f>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="AG22" s="0" t="n">
         <f aca="false">(AG$6/$U22)*360</f>
-        <v>12.5084762247149</v>
+        <v>12.508476224715</v>
       </c>
       <c r="AH22" s="0" t="n">
         <f aca="false">(AH$6/$U22)*360</f>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="AL22" s="0" t="n">
         <f aca="false">(AL$6/$U22)*360</f>
-        <v>78.6939702952317</v>
+        <v>78.6939702952316</v>
       </c>
       <c r="AM22" s="0" t="n">
         <f aca="false">(AM$6/$U22)*360</f>
@@ -11000,7 +11000,7 @@
       </c>
       <c r="AN22" s="0" t="n">
         <f aca="false">(AN$6/$U22)*360</f>
-        <v>7.86939702952317</v>
+        <v>7.86939702952316</v>
       </c>
       <c r="AO22" s="0" t="n">
         <f aca="false">(AO$6/$U22)*360</f>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="U23" s="0" t="n">
         <f aca="false">300/(T23*SQRT($D$10))</f>
-        <v>351.657910318856</v>
+        <v>205.404487344445</v>
       </c>
       <c r="W23" s="0" t="n">
         <f aca="false">(W$6/$U23)*360</f>
@@ -11052,23 +11052,23 @@
       </c>
       <c r="AH23" s="0" t="n">
         <f aca="false">(AH$6/$U23)*360</f>
-        <v>2.82187479697984</v>
+        <v>2.82187479697983</v>
       </c>
       <c r="AL23" s="0" t="n">
         <f aca="false">(AL$6/$U23)*360</f>
-        <v>82.4027028556066</v>
+        <v>82.4027028556065</v>
       </c>
       <c r="AM23" s="0" t="n">
         <f aca="false">(AM$6/$U23)*360</f>
-        <v>26.0580226377778</v>
+        <v>26.0580226377777</v>
       </c>
       <c r="AN23" s="0" t="n">
         <f aca="false">(AN$6/$U23)*360</f>
-        <v>8.24027028556066</v>
+        <v>8.24027028556065</v>
       </c>
       <c r="AO23" s="0" t="n">
         <f aca="false">(AO$6/$U23)*360</f>
-        <v>2.60580226377778</v>
+        <v>2.60580226377777</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="U24" s="0" t="n">
         <f aca="false">300/(T24*SQRT($D$10))</f>
-        <v>335.830697170298</v>
+        <v>196.159762549479</v>
       </c>
       <c r="W24" s="0" t="n">
         <f aca="false">(W$6/$U24)*360</f>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="AF24" s="0" t="n">
         <f aca="false">(AF$6/$U24)*360</f>
-        <v>63.6606508001056</v>
+        <v>63.6606508001057</v>
       </c>
       <c r="AG24" s="0" t="n">
         <f aca="false">(AG$6/$U24)*360</f>
@@ -11106,15 +11106,15 @@
       </c>
       <c r="AH24" s="0" t="n">
         <f aca="false">(AH$6/$U24)*360</f>
-        <v>2.95486565894293</v>
+        <v>2.95486565894292</v>
       </c>
       <c r="AL24" s="0" t="n">
         <f aca="false">(AL$6/$U24)*360</f>
-        <v>86.2862225966611</v>
+        <v>86.286222596661</v>
       </c>
       <c r="AM24" s="0" t="n">
         <f aca="false">(AM$6/$U24)*360</f>
-        <v>27.2860994097737</v>
+        <v>27.2860994097736</v>
       </c>
       <c r="AN24" s="0" t="n">
         <f aca="false">(AN$6/$U24)*360</f>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="AO24" s="0" t="n">
         <f aca="false">(AO$6/$U24)*360</f>
-        <v>2.72860994097737</v>
+        <v>2.72860994097736</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11142,11 +11142,11 @@
       </c>
       <c r="U25" s="0" t="n">
         <f aca="false">300/(T25*SQRT($D$10))</f>
-        <v>320.715825956045</v>
+        <v>187.331118910478</v>
       </c>
       <c r="W25" s="0" t="n">
         <f aca="false">(W$6/$U25)*360</f>
-        <v>3.7234980549874</v>
+        <v>3.72349805498739</v>
       </c>
       <c r="AA25" s="0" t="n">
         <f aca="false">(AA$6/$U25)*360</f>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="AF25" s="0" t="n">
         <f aca="false">(AF$6/$U25)*360</f>
-        <v>66.66088484029</v>
+        <v>66.6608848402899</v>
       </c>
       <c r="AG25" s="0" t="n">
         <f aca="false">(AG$6/$U25)*360</f>
@@ -11166,23 +11166,23 @@
       </c>
       <c r="AH25" s="0" t="n">
         <f aca="false">(AH$6/$U25)*360</f>
-        <v>3.09412418713437</v>
+        <v>3.09412418713436</v>
       </c>
       <c r="AL25" s="0" t="n">
         <f aca="false">(AL$6/$U25)*360</f>
-        <v>90.3527669844384</v>
+        <v>90.3527669844382</v>
       </c>
       <c r="AM25" s="0" t="n">
         <f aca="false">(AM$6/$U25)*360</f>
-        <v>28.5720536569289</v>
+        <v>28.5720536569288</v>
       </c>
       <c r="AN25" s="0" t="n">
         <f aca="false">(AN$6/$U25)*360</f>
-        <v>9.03527669844384</v>
+        <v>9.03527669844382</v>
       </c>
       <c r="AO25" s="0" t="n">
         <f aca="false">(AO$6/$U25)*360</f>
-        <v>2.85720536569289</v>
+        <v>2.85720536569288</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="U26" s="0" t="n">
         <f aca="false">300/(T26*SQRT($D$10))</f>
-        <v>306.281236007764</v>
+        <v>178.899829690606</v>
       </c>
       <c r="W26" s="0" t="n">
         <f aca="false">(W$6/$U26)*360</f>
@@ -11222,15 +11222,15 @@
       </c>
       <c r="AA26" s="0" t="n">
         <f aca="false">(AA$6/$U26)*360</f>
-        <v>35.799735664629</v>
+        <v>35.7997356646291</v>
       </c>
       <c r="AB26" s="0" t="n">
         <f aca="false">(AB$6/$U26)*360</f>
-        <v>3.5799735664629</v>
+        <v>3.57997356646291</v>
       </c>
       <c r="AF26" s="0" t="n">
         <f aca="false">(AF$6/$U26)*360</f>
-        <v>69.802515554601</v>
+        <v>69.8025155546011</v>
       </c>
       <c r="AG26" s="0" t="n">
         <f aca="false">(AG$6/$U26)*360</f>
@@ -11294,7 +11294,7 @@
       </c>
       <c r="U27" s="0" t="n">
         <f aca="false">300/(T27*SQRT($D$10))</f>
-        <v>292.496309624896</v>
+        <v>170.848010995026</v>
       </c>
       <c r="W27" s="0" t="n">
         <f aca="false">(W$6/$U27)*360</f>
@@ -11318,23 +11318,23 @@
       </c>
       <c r="AH27" s="0" t="n">
         <f aca="false">(AH$6/$U27)*360</f>
-        <v>3.39263970735209</v>
+        <v>3.39263970735208</v>
       </c>
       <c r="AL27" s="0" t="n">
         <f aca="false">(AL$6/$U27)*360</f>
-        <v>99.0698389596425</v>
+        <v>99.0698389596424</v>
       </c>
       <c r="AM27" s="0" t="n">
         <f aca="false">(AM$6/$U27)*360</f>
-        <v>31.3286338538557</v>
+        <v>31.3286338538555</v>
       </c>
       <c r="AN27" s="0" t="n">
         <f aca="false">(AN$6/$U27)*360</f>
-        <v>9.90698389596425</v>
+        <v>9.90698389596424</v>
       </c>
       <c r="AO27" s="0" t="n">
         <f aca="false">(AO$6/$U27)*360</f>
-        <v>3.13286338538557</v>
+        <v>3.13286338538555</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11343,11 +11343,11 @@
       </c>
       <c r="C28" s="5" t="n">
         <f aca="false">300/C27/4/SQRT($D$10)</f>
-        <v>30.4577424669828</v>
+        <v>17.790462814919</v>
       </c>
       <c r="E28" s="5" t="n">
         <f aca="false">300/E27/4/SQRT($D$10)</f>
-        <v>3.04577424669828</v>
+        <v>1.7790462814919</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>9</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="U28" s="0" t="n">
         <f aca="false">300/(T28*SQRT($D$10))</f>
-        <v>279.331807130406</v>
+        <v>163.158583836759</v>
       </c>
       <c r="W28" s="0" t="n">
         <f aca="false">(W$6/$U28)*360</f>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="AF28" s="0" t="n">
         <f aca="false">(AF$6/$U28)*360</f>
-        <v>76.5369363415656</v>
+        <v>76.5369363415657</v>
       </c>
       <c r="AG28" s="0" t="n">
         <f aca="false">(AG$6/$U28)*360</f>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="AH28" s="0" t="n">
         <f aca="false">(AH$6/$U28)*360</f>
-        <v>3.55252989081943</v>
+        <v>3.55252989081942</v>
       </c>
       <c r="AL28" s="0" t="n">
         <f aca="false">(AL$6/$U28)*360</f>
@@ -11430,7 +11430,7 @@
       </c>
       <c r="U29" s="0" t="n">
         <f aca="false">300/(T29*SQRT($D$10))</f>
-        <v>266.759804849508</v>
+        <v>155.815237909862</v>
       </c>
       <c r="W29" s="0" t="n">
         <f aca="false">(W$6/$U29)*360</f>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="AH29" s="0" t="n">
         <f aca="false">(AH$6/$U29)*360</f>
-        <v>3.71995546648117</v>
+        <v>3.71995546648116</v>
       </c>
       <c r="AL29" s="0" t="n">
         <f aca="false">(AL$6/$U29)*360</f>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="AM29" s="0" t="n">
         <f aca="false">(AM$6/$U29)*360</f>
-        <v>34.351163935706</v>
+        <v>34.3511639357059</v>
       </c>
       <c r="AN29" s="0" t="n">
         <f aca="false">(AN$6/$U29)*360</f>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="AO29" s="0" t="n">
         <f aca="false">(AO$6/$U29)*360</f>
-        <v>3.4351163935706</v>
+        <v>3.43511639357059</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="U30" s="0" t="n">
         <f aca="false">300/(T30*SQRT($D$10))</f>
-        <v>254.753635879805</v>
+        <v>148.802396993084</v>
       </c>
       <c r="W30" s="0" t="n">
         <f aca="false">(W$6/$U30)*360</f>
@@ -11514,7 +11514,7 @@
       </c>
       <c r="AF30" s="0" t="n">
         <f aca="false">(AF$6/$U30)*360</f>
-        <v>83.9210818981256</v>
+        <v>83.9210818981257</v>
       </c>
       <c r="AG30" s="0" t="n">
         <f aca="false">(AG$6/$U30)*360</f>
@@ -11522,15 +11522,15 @@
       </c>
       <c r="AH30" s="0" t="n">
         <f aca="false">(AH$6/$U30)*360</f>
-        <v>3.89527156643043</v>
+        <v>3.89527156643042</v>
       </c>
       <c r="AL30" s="0" t="n">
         <f aca="false">(AL$6/$U30)*360</f>
-        <v>113.747394382627</v>
+        <v>113.747394382626</v>
       </c>
       <c r="AM30" s="0" t="n">
         <f aca="false">(AM$6/$U30)*360</f>
-        <v>35.9700844158542</v>
+        <v>35.9700844158541</v>
       </c>
       <c r="AN30" s="0" t="n">
         <f aca="false">(AN$6/$U30)*360</f>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="AO30" s="0" t="n">
         <f aca="false">(AO$6/$U30)*360</f>
-        <v>3.59700844158542</v>
+        <v>3.59700844158541</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="U31" s="0" t="n">
         <f aca="false">300/(T31*SQRT($D$10))</f>
-        <v>243.287833527218</v>
+        <v>142.105185910614</v>
       </c>
       <c r="W31" s="0" t="n">
         <f aca="false">(W$6/$U31)*360</f>
@@ -11574,11 +11574,11 @@
       </c>
       <c r="AA31" s="0" t="n">
         <f aca="false">(AA$6/$U31)*360</f>
-        <v>45.0691969637154</v>
+        <v>45.0691969637155</v>
       </c>
       <c r="AB31" s="0" t="n">
         <f aca="false">(AB$6/$U31)*360</f>
-        <v>4.50691969637154</v>
+        <v>4.50691969637155</v>
       </c>
       <c r="AF31" s="0" t="n">
         <f aca="false">(AF$6/$U31)*360</f>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="AH31" s="0" t="n">
         <f aca="false">(AH$6/$U31)*360</f>
-        <v>4.07885005962025</v>
+        <v>4.07885005962024</v>
       </c>
       <c r="AL31" s="0" t="n">
         <f aca="false">(AL$6/$U31)*360</f>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="AM31" s="0" t="n">
         <f aca="false">(AM$6/$U31)*360</f>
-        <v>37.6653022676417</v>
+        <v>37.6653022676416</v>
       </c>
       <c r="AN31" s="0" t="n">
         <f aca="false">(AN$6/$U31)*360</f>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="AO31" s="0" t="n">
         <f aca="false">(AO$6/$U31)*360</f>
-        <v>3.76653022676417</v>
+        <v>3.76653022676416</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="U32" s="0" t="n">
         <f aca="false">300/(T32*SQRT($D$10))</f>
-        <v>232.338077287711</v>
+        <v>135.709398979834</v>
       </c>
       <c r="W32" s="0" t="n">
         <f aca="false">(W$6/$U32)*360</f>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="AA32" s="0" t="n">
         <f aca="false">(AA$6/$U32)*360</f>
-        <v>47.1932427784354</v>
+        <v>47.1932427784353</v>
       </c>
       <c r="AB32" s="0" t="n">
         <f aca="false">(AB$6/$U32)*360</f>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="AH32" s="0" t="n">
         <f aca="false">(AH$6/$U32)*360</f>
-        <v>4.27108034064748</v>
+        <v>4.27108034064746</v>
       </c>
       <c r="AL32" s="0" t="n">
         <f aca="false">(AL$6/$U32)*360</f>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="AM32" s="0" t="n">
         <f aca="false">(AM$6/$U32)*360</f>
-        <v>39.4404132754139</v>
+        <v>39.4404132754138</v>
       </c>
       <c r="AN32" s="0" t="n">
         <f aca="false">(AN$6/$U32)*360</f>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="AO32" s="0" t="n">
         <f aca="false">(AO$6/$U32)*360</f>
-        <v>3.94404132754139</v>
+        <v>3.94404132754138</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="U33" s="0" t="n">
         <f aca="false">300/(T33*SQRT($D$10))</f>
-        <v>221.881141260239</v>
+        <v>129.601469879166</v>
       </c>
       <c r="W33" s="0" t="n">
         <f aca="false">(W$6/$U33)*360</f>
@@ -11695,19 +11695,19 @@
       </c>
       <c r="AB33" s="0" t="n">
         <f aca="false">(AB$6/$U33)*360</f>
-        <v>4.94173917883966</v>
+        <v>4.94173917883967</v>
       </c>
       <c r="AF33" s="0" t="n">
         <f aca="false">(AF$6/$U33)*360</f>
-        <v>96.3542941012694</v>
+        <v>96.3542941012695</v>
       </c>
       <c r="AG33" s="0" t="n">
         <f aca="false">(AG$6/$U33)*360</f>
-        <v>20.7589033745309</v>
+        <v>20.758903374531</v>
       </c>
       <c r="AH33" s="0" t="n">
         <f aca="false">(AH$6/$U33)*360</f>
-        <v>4.47237015571094</v>
+        <v>4.47237015571092</v>
       </c>
       <c r="AL33" s="0" t="n">
         <f aca="false">(AL$6/$U33)*360</f>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="AM33" s="0" t="n">
         <f aca="false">(AM$6/$U33)*360</f>
-        <v>41.2991826876116</v>
+        <v>41.2991826876115</v>
       </c>
       <c r="AN33" s="0" t="n">
         <f aca="false">(AN$6/$U33)*360</f>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="AO33" s="0" t="n">
         <f aca="false">(AO$6/$U33)*360</f>
-        <v>4.12991826876116</v>
+        <v>4.12991826876115</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="U34" s="0" t="n">
         <f aca="false">300/(T34*SQRT($D$10))</f>
-        <v>211.894844881503</v>
+        <v>123.768442872084</v>
       </c>
       <c r="W34" s="0" t="n">
         <f aca="false">(W$6/$U34)*360</f>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="AH34" s="0" t="n">
         <f aca="false">(AH$6/$U34)*360</f>
-        <v>4.68314646749577</v>
+        <v>4.68314646749576</v>
       </c>
       <c r="AL34" s="0" t="n">
         <f aca="false">(AL$6/$U34)*360</f>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="AM34" s="0" t="n">
         <f aca="false">(AM$6/$U34)*360</f>
-        <v>43.2455532033676</v>
+        <v>43.2455532033675</v>
       </c>
       <c r="AN34" s="0" t="n">
         <f aca="false">(AN$6/$U34)*360</f>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="AO34" s="0" t="n">
         <f aca="false">(AO$6/$U34)*360</f>
-        <v>4.32455532033676</v>
+        <v>4.32455532033675</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11849,11 +11849,11 @@
       </c>
       <c r="U35" s="0" t="n">
         <f aca="false">300/(T35*SQRT($D$10))</f>
-        <v>202.358005877998</v>
+        <v>118.197945326258</v>
       </c>
       <c r="W35" s="0" t="n">
         <f aca="false">(W$6/$U35)*360</f>
-        <v>5.90134671949172</v>
+        <v>5.90134671949173</v>
       </c>
       <c r="AA35" s="0" t="n">
         <f aca="false">(AA$6/$U35)*360</f>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="AH35" s="0" t="n">
         <f aca="false">(AH$6/$U35)*360</f>
-        <v>4.90385636081854</v>
+        <v>4.90385636081853</v>
       </c>
       <c r="AL35" s="0" t="n">
         <f aca="false">(AL$6/$U35)*360</f>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="AM35" s="0" t="n">
         <f aca="false">(AM$6/$U35)*360</f>
-        <v>45.2836533355002</v>
+        <v>45.2836533355001</v>
       </c>
       <c r="AN35" s="0" t="n">
         <f aca="false">(AN$6/$U35)*360</f>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="AO35" s="0" t="n">
         <f aca="false">(AO$6/$U35)*360</f>
-        <v>4.52836533355002</v>
+        <v>4.52836533355001</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11898,15 +11898,15 @@
       </c>
       <c r="C36" s="5" t="n">
         <f aca="false">300/C35/4/SQRT($D$10)</f>
-        <v>59.386668723651</v>
+        <v>34.6879392908167</v>
       </c>
       <c r="E36" s="5" t="n">
         <f aca="false">300/E35/4/SQRT($D$10)</f>
-        <v>12.7944699223665</v>
+        <v>7.47328997338555</v>
       </c>
       <c r="G36" s="5" t="n">
         <f aca="false">300/G35/4/SQRT($D$10)</f>
-        <v>2.7564849841316</v>
+        <v>1.61007151673292</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>9</v>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="U36" s="0" t="n">
         <f aca="false">300/(T36*SQRT($D$10))</f>
-        <v>193.25039533557</v>
+        <v>112.878161469544</v>
       </c>
       <c r="W36" s="0" t="n">
         <f aca="false">(W$6/$U36)*360</f>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="AH36" s="0" t="n">
         <f aca="false">(AH$6/$U36)*360</f>
-        <v>5.13496799095409</v>
+        <v>5.13496799095408</v>
       </c>
       <c r="AL36" s="0" t="n">
         <f aca="false">(AL$6/$U36)*360</f>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="AM36" s="0" t="n">
         <f aca="false">(AM$6/$U36)*360</f>
-        <v>47.4178061676426</v>
+        <v>47.4178061676425</v>
       </c>
       <c r="AN36" s="0" t="n">
         <f aca="false">(AN$6/$U36)*360</f>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="AO36" s="0" t="n">
         <f aca="false">(AO$6/$U36)*360</f>
-        <v>4.74178061676426</v>
+        <v>4.74178061676425</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11993,7 +11993,7 @@
       </c>
       <c r="U37" s="0" t="n">
         <f aca="false">300/(T37*SQRT($D$10))</f>
-        <v>184.552694791181</v>
+        <v>107.797807327145</v>
       </c>
       <c r="W37" s="0" t="n">
         <f aca="false">(W$6/$U37)*360</f>
@@ -12001,11 +12001,11 @@
       </c>
       <c r="AA37" s="0" t="n">
         <f aca="false">(AA$6/$U37)*360</f>
-        <v>59.4127725987439</v>
+        <v>59.4127725987438</v>
       </c>
       <c r="AB37" s="0" t="n">
         <f aca="false">(AB$6/$U37)*360</f>
-        <v>5.94127725987438</v>
+        <v>5.94127725987439</v>
       </c>
       <c r="AF37" s="0" t="n">
         <f aca="false">(AF$6/$U37)*360</f>
@@ -12013,11 +12013,11 @@
       </c>
       <c r="AG37" s="0" t="n">
         <f aca="false">(AG$6/$U37)*360</f>
-        <v>24.9576912288579</v>
+        <v>24.957691228858</v>
       </c>
       <c r="AH37" s="0" t="n">
         <f aca="false">(AH$6/$U37)*360</f>
-        <v>5.3769715766556</v>
+        <v>5.37697157665558</v>
       </c>
       <c r="AL37" s="0" t="n">
         <f aca="false">(AL$6/$U37)*360</f>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="AM37" s="0" t="n">
         <f aca="false">(AM$6/$U37)*360</f>
-        <v>49.6525385240826</v>
+        <v>49.6525385240825</v>
       </c>
       <c r="AN37" s="0" t="n">
         <f aca="false">(AN$6/$U37)*360</f>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="AO37" s="0" t="n">
         <f aca="false">(AO$6/$U37)*360</f>
-        <v>4.96525385240826</v>
+        <v>4.96525385240825</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12042,15 +12042,15 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C36*360/(300/B35/SQRT($D$10))</f>
-        <v>31.9059054654167</v>
+        <v>31.9059054654168</v>
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">E36*360/(300/D35/SQRT($D$10))</f>
-        <v>31.9059054654167</v>
+        <v>31.9059054654169</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">G36*360/(300/F35/SQRT($D$10))</f>
-        <v>31.9059054654167</v>
+        <v>31.9059054654166</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>32</v>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="U38" s="0" t="n">
         <f aca="false">300/(T38*SQRT($D$10))</f>
-        <v>176.246455255855</v>
+        <v>102.94610678679</v>
       </c>
       <c r="W38" s="0" t="n">
         <f aca="false">(W$6/$U38)*360</f>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="AH38" s="0" t="n">
         <f aca="false">(AH$6/$U38)*360</f>
-        <v>5.63038043997433</v>
+        <v>5.63038043997432</v>
       </c>
       <c r="AL38" s="0" t="n">
         <f aca="false">(AL$6/$U38)*360</f>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="AM38" s="0" t="n">
         <f aca="false">(AM$6/$U38)*360</f>
-        <v>51.992590571764</v>
+        <v>51.9925905717638</v>
       </c>
       <c r="AN38" s="0" t="n">
         <f aca="false">(AN$6/$U38)*360</f>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="AO38" s="0" t="n">
         <f aca="false">(AO$6/$U38)*360</f>
-        <v>5.1992590571764</v>
+        <v>5.19925905717638</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="C39" s="0" t="n">
         <f aca="false">C36*360/(300/D35/SQRT($D$10))</f>
-        <v>148.094094534583</v>
+        <v>148.094094534584</v>
       </c>
       <c r="E39" s="0" t="n">
         <f aca="false">E36*360/(300/F35/SQRT($D$10))</f>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="U39" s="0" t="n">
         <f aca="false">300/(T39*SQRT($D$10))</f>
-        <v>168.3140580819</v>
+        <v>98.3127687411558</v>
       </c>
       <c r="W39" s="0" t="n">
         <f aca="false">(W$6/$U39)*360</f>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="AH39" s="0" t="n">
         <f aca="false">(AH$6/$U39)*360</f>
-        <v>5.89573209508451</v>
+        <v>5.89573209508449</v>
       </c>
       <c r="AL39" s="0" t="n">
         <f aca="false">(AL$6/$U39)*360</f>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="AM39" s="0" t="n">
         <f aca="false">(AM$6/$U39)*360</f>
-        <v>54.4429258748161</v>
+        <v>54.4429258748159</v>
       </c>
       <c r="AN39" s="0" t="n">
         <f aca="false">(AN$6/$U39)*360</f>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="AO39" s="0" t="n">
         <f aca="false">(AO$6/$U39)*360</f>
-        <v>5.44429258748161</v>
+        <v>5.44429258748159</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12191,47 +12191,47 @@
       </c>
       <c r="U40" s="0" t="n">
         <f aca="false">300/(T40*SQRT($D$10))</f>
-        <v>160.738677591396</v>
+        <v>93.8879652590433</v>
       </c>
       <c r="W40" s="0" t="n">
         <f aca="false">(W$6/$U40)*360</f>
-        <v>7.42935534897627</v>
+        <v>7.42935534897631</v>
       </c>
       <c r="AA40" s="0" t="n">
         <f aca="false">(AA$6/$U40)*360</f>
-        <v>68.2149900224185</v>
+        <v>68.2149900224189</v>
       </c>
       <c r="AB40" s="0" t="n">
         <f aca="false">(AB$6/$U40)*360</f>
-        <v>6.82149900224185</v>
+        <v>6.82149900224189</v>
       </c>
       <c r="AF40" s="0" t="n">
         <f aca="false">(AF$6/$U40)*360</f>
-        <v>133.005951404311</v>
+        <v>133.005951404312</v>
       </c>
       <c r="AG40" s="0" t="n">
         <f aca="false">(AG$6/$U40)*360</f>
-        <v>28.6552635686142</v>
+        <v>28.6552635686144</v>
       </c>
       <c r="AH40" s="0" t="n">
         <f aca="false">(AH$6/$U40)*360</f>
-        <v>6.17358938842293</v>
+        <v>6.17358938842295</v>
       </c>
       <c r="AL40" s="0" t="n">
         <f aca="false">(AL$6/$U40)*360</f>
-        <v>180.277471017214</v>
+        <v>180.277471017215</v>
       </c>
       <c r="AM40" s="0" t="n">
         <f aca="false">(AM$6/$U40)*360</f>
-        <v>57.0087419229389</v>
+        <v>57.0087419229391</v>
       </c>
       <c r="AN40" s="0" t="n">
         <f aca="false">(AN$6/$U40)*360</f>
-        <v>18.0277471017214</v>
+        <v>18.0277471017215</v>
       </c>
       <c r="AO40" s="0" t="n">
         <f aca="false">(AO$6/$U40)*360</f>
-        <v>5.70087419229389</v>
+        <v>5.70087419229391</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12257,27 +12257,27 @@
       </c>
       <c r="U41" s="0" t="n">
         <f aca="false">300/(T41*SQRT($D$10))</f>
-        <v>153.504245386673</v>
+        <v>89.6623107390248</v>
       </c>
       <c r="W41" s="0" t="n">
         <f aca="false">(W$6/$U41)*360</f>
-        <v>7.77949007952771</v>
+        <v>7.77949007952772</v>
       </c>
       <c r="AA41" s="0" t="n">
         <f aca="false">(AA$6/$U41)*360</f>
-        <v>71.4298634574817</v>
+        <v>71.4298634574818</v>
       </c>
       <c r="AB41" s="0" t="n">
         <f aca="false">(AB$6/$U41)*360</f>
-        <v>7.14298634574817</v>
+        <v>7.14298634574818</v>
       </c>
       <c r="AF41" s="0" t="n">
         <f aca="false">(AF$6/$U41)*360</f>
-        <v>139.274328776124</v>
+        <v>139.274328776125</v>
       </c>
       <c r="AG41" s="0" t="n">
         <f aca="false">(AG$6/$U41)*360</f>
-        <v>30.0057445346188</v>
+        <v>30.0057445346189</v>
       </c>
       <c r="AH41" s="0" t="n">
         <f aca="false">(AH$6/$U41)*360</f>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="AM41" s="0" t="n">
         <f aca="false">(AM$6/$U41)*360</f>
-        <v>59.6954811559755</v>
+        <v>59.6954811559754</v>
       </c>
       <c r="AN41" s="0" t="n">
         <f aca="false">(AN$6/$U41)*360</f>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="AO41" s="0" t="n">
         <f aca="false">(AO$6/$U41)*360</f>
-        <v>5.96954811559755</v>
+        <v>5.96954811559754</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="U42" s="0" t="n">
         <f aca="false">300/(T42*SQRT($D$10))</f>
-        <v>146.595416267088</v>
+        <v>85.626842001319</v>
       </c>
       <c r="W42" s="0" t="n">
         <f aca="false">(W$6/$U42)*360</f>
@@ -12361,11 +12361,11 @@
       </c>
       <c r="AG42" s="0" t="n">
         <f aca="false">(AG$6/$U42)*360</f>
-        <v>31.4198717077216</v>
+        <v>31.4198717077217</v>
       </c>
       <c r="AH42" s="0" t="n">
         <f aca="false">(AH$6/$U42)*360</f>
-        <v>6.76920615634668</v>
+        <v>6.76920615634666</v>
       </c>
       <c r="AL42" s="0" t="n">
         <f aca="false">(AL$6/$U42)*360</f>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="AM42" s="0" t="n">
         <f aca="false">(AM$6/$U42)*360</f>
-        <v>62.5088425080565</v>
+        <v>62.5088425080563</v>
       </c>
       <c r="AN42" s="0" t="n">
         <f aca="false">(AN$6/$U42)*360</f>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="AO42" s="0" t="n">
         <f aca="false">(AO$6/$U42)*360</f>
-        <v>6.25088425080565</v>
+        <v>6.25088425080563</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12437,19 +12437,19 @@
       </c>
       <c r="U43" s="0" t="n">
         <f aca="false">300/(T43*SQRT($D$10))</f>
-        <v>139.997535679795</v>
+        <v>81.7729992756887</v>
       </c>
       <c r="W43" s="0" t="n">
         <f aca="false">(W$6/$U43)*360</f>
-        <v>8.53004124931435</v>
+        <v>8.53004124931433</v>
       </c>
       <c r="AA43" s="0" t="n">
         <f aca="false">(AA$6/$U43)*360</f>
-        <v>78.3212878346136</v>
+        <v>78.3212878346134</v>
       </c>
       <c r="AB43" s="0" t="n">
         <f aca="false">(AB$6/$U43)*360</f>
-        <v>7.83212878346136</v>
+        <v>7.83212878346134</v>
       </c>
       <c r="AF43" s="0" t="n">
         <f aca="false">(AF$6/$U43)*360</f>
@@ -12461,23 +12461,23 @@
       </c>
       <c r="AH43" s="0" t="n">
         <f aca="false">(AH$6/$U43)*360</f>
-        <v>7.08822901395251</v>
+        <v>7.08822901395248</v>
       </c>
       <c r="AL43" s="0" t="n">
         <f aca="false">(AL$6/$U43)*360</f>
-        <v>206.986231222714</v>
+        <v>206.986231222713</v>
       </c>
       <c r="AM43" s="0" t="n">
         <f aca="false">(AM$6/$U43)*360</f>
-        <v>65.4547934958035</v>
+        <v>65.4547934958032</v>
       </c>
       <c r="AN43" s="0" t="n">
         <f aca="false">(AN$6/$U43)*360</f>
-        <v>20.6986231222714</v>
+        <v>20.6986231222713</v>
       </c>
       <c r="AO43" s="0" t="n">
         <f aca="false">(AO$6/$U43)*360</f>
-        <v>6.54547934958035</v>
+        <v>6.54547934958032</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12486,19 +12486,19 @@
       </c>
       <c r="C44" s="5" t="n">
         <f aca="false">300/C43/4/SQRT($D$10)</f>
-        <v>80.4932285856339</v>
+        <v>47.0163470440346</v>
       </c>
       <c r="E44" s="5" t="n">
         <f aca="false">300/E43/4/SQRT($D$10)</f>
-        <v>25.4541938551177</v>
+        <v>14.8678743920074</v>
       </c>
       <c r="G44" s="5" t="n">
         <f aca="false">300/G43/4/SQRT($D$10)</f>
-        <v>8.04932285856339</v>
+        <v>4.70163470440347</v>
       </c>
       <c r="I44" s="5" t="n">
         <f aca="false">300/I43/4/SQRT($D$10)</f>
-        <v>2.54541938551177</v>
+        <v>1.48678743920074</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>9</v>
@@ -12513,23 +12513,23 @@
       </c>
       <c r="U44" s="0" t="n">
         <f aca="false">300/(T44*SQRT($D$10))</f>
-        <v>133.696608635476</v>
+        <v>78.092608045019</v>
       </c>
       <c r="W44" s="0" t="n">
         <f aca="false">(W$6/$U44)*360</f>
-        <v>8.93204970820881</v>
+        <v>8.93204970820879</v>
       </c>
       <c r="AA44" s="0" t="n">
         <f aca="false">(AA$6/$U44)*360</f>
-        <v>82.0124564117355</v>
+        <v>82.0124564117352</v>
       </c>
       <c r="AB44" s="0" t="n">
         <f aca="false">(AB$6/$U44)*360</f>
-        <v>8.20124564117354</v>
+        <v>8.20124564117352</v>
       </c>
       <c r="AF44" s="0" t="n">
         <f aca="false">(AF$6/$U44)*360</f>
-        <v>159.908324965855</v>
+        <v>159.908324965854</v>
       </c>
       <c r="AG44" s="0" t="n">
         <f aca="false">(AG$6/$U44)*360</f>
@@ -12537,23 +12537,23 @@
       </c>
       <c r="AH44" s="0" t="n">
         <f aca="false">(AH$6/$U44)*360</f>
-        <v>7.42228695563235</v>
+        <v>7.42228695563231</v>
       </c>
       <c r="AL44" s="0" t="n">
         <f aca="false">(AL$6/$U44)*360</f>
-        <v>216.741191766768</v>
+        <v>216.741191766767</v>
       </c>
       <c r="AM44" s="0" t="n">
         <f aca="false">(AM$6/$U44)*360</f>
-        <v>68.5395828762322</v>
+        <v>68.5395828762318</v>
       </c>
       <c r="AN44" s="0" t="n">
         <f aca="false">(AN$6/$U44)*360</f>
-        <v>21.6741191766768</v>
+        <v>21.6741191766767</v>
       </c>
       <c r="AO44" s="0" t="n">
         <f aca="false">(AO$6/$U44)*360</f>
-        <v>6.85395828762322</v>
+        <v>6.85395828762318</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12562,19 +12562,19 @@
       </c>
       <c r="C45" s="0" t="n">
         <f aca="false">C44/(0.3/SQRT($D$10))</f>
-        <v>500.527236150088</v>
+        <v>500.527236150087</v>
       </c>
       <c r="E45" s="0" t="n">
         <f aca="false">E44/(0.3/SQRT($D$10))</f>
-        <v>158.280609718325</v>
+        <v>158.280609718324</v>
       </c>
       <c r="G45" s="0" t="n">
         <f aca="false">G44/(0.3/SQRT($D$10))</f>
-        <v>50.0527236150088</v>
+        <v>50.0527236150087</v>
       </c>
       <c r="I45" s="0" t="n">
         <f aca="false">I44/(0.3/SQRT($D$10))</f>
-        <v>15.8280609718325</v>
+        <v>15.8280609718324</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>30</v>
@@ -12589,47 +12589,47 @@
       </c>
       <c r="U45" s="0" t="n">
         <f aca="false">300/(T45*SQRT($D$10))</f>
-        <v>127.679270023089</v>
+        <v>74.5778617060712</v>
       </c>
       <c r="W45" s="0" t="n">
         <f aca="false">(W$6/$U45)*360</f>
-        <v>9.35300424207515</v>
+        <v>9.35300424207512</v>
       </c>
       <c r="AA45" s="0" t="n">
         <f aca="false">(AA$6/$U45)*360</f>
-        <v>85.8775844045082</v>
+        <v>85.8775844045079</v>
       </c>
       <c r="AB45" s="0" t="n">
         <f aca="false">(AB$6/$U45)*360</f>
-        <v>8.58775844045082</v>
+        <v>8.5877584404508</v>
       </c>
       <c r="AF45" s="0" t="n">
         <f aca="false">(AF$6/$U45)*360</f>
-        <v>167.444572142747</v>
+        <v>167.444572142746</v>
       </c>
       <c r="AG45" s="0" t="n">
         <f aca="false">(AG$6/$U45)*360</f>
-        <v>36.0748394881881</v>
+        <v>36.074839488188</v>
       </c>
       <c r="AH45" s="0" t="n">
         <f aca="false">(AH$6/$U45)*360</f>
-        <v>7.77208856306844</v>
+        <v>7.77208856306839</v>
       </c>
       <c r="AL45" s="0" t="n">
         <f aca="false">(AL$6/$U45)*360</f>
-        <v>226.955889437558</v>
+        <v>226.955889437557</v>
       </c>
       <c r="AM45" s="0" t="n">
         <f aca="false">(AM$6/$U45)*360</f>
-        <v>71.7697539012033</v>
+        <v>71.7697539012029</v>
       </c>
       <c r="AN45" s="0" t="n">
         <f aca="false">(AN$6/$U45)*360</f>
-        <v>22.6955889437558</v>
+        <v>22.6955889437557</v>
       </c>
       <c r="AO45" s="0" t="n">
         <f aca="false">(AO$6/$U45)*360</f>
-        <v>7.17697539012033</v>
+        <v>7.17697539012029</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12638,15 +12638,15 @@
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">C44*360/(300/B43/SQRT($D$10))</f>
-        <v>43.2455532033676</v>
+        <v>43.2455532033675</v>
       </c>
       <c r="E46" s="0" t="n">
         <f aca="false">E44*360/(300/D43/SQRT($D$10))</f>
-        <v>43.2455532033676</v>
+        <v>43.2455532033675</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">G44*360/(300/F43/SQRT($D$10))</f>
-        <v>43.2455532033676</v>
+        <v>43.2455532033675</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>32</v>
@@ -12661,11 +12661,11 @@
       </c>
       <c r="U46" s="0" t="n">
         <f aca="false">300/(T46*SQRT($D$10))</f>
-        <v>121.932756260679</v>
+        <v>71.2213050106296</v>
       </c>
       <c r="W46" s="0" t="n">
         <f aca="false">(W$6/$U46)*360</f>
-        <v>9.79379775191806</v>
+        <v>9.79379775191807</v>
       </c>
       <c r="AA46" s="0" t="n">
         <f aca="false">(AA$6/$U46)*360</f>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="AB46" s="0" t="n">
         <f aca="false">(AB$6/$U46)*360</f>
-        <v>8.99248702676113</v>
+        <v>8.99248702676114</v>
       </c>
       <c r="AF46" s="0" t="n">
         <f aca="false">(AF$6/$U46)*360</f>
@@ -12681,11 +12681,11 @@
       </c>
       <c r="AG46" s="0" t="n">
         <f aca="false">(AG$6/$U46)*360</f>
-        <v>37.7749942944356</v>
+        <v>37.7749942944357</v>
       </c>
       <c r="AH46" s="0" t="n">
         <f aca="false">(AH$6/$U46)*360</f>
-        <v>8.13837581236886</v>
+        <v>8.13837581236884</v>
       </c>
       <c r="AL46" s="0" t="n">
         <f aca="false">(AL$6/$U46)*360</f>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="AM46" s="0" t="n">
         <f aca="false">(AM$6/$U46)*360</f>
-        <v>75.1521581965374</v>
+        <v>75.1521581965372</v>
       </c>
       <c r="AN46" s="0" t="n">
         <f aca="false">(AN$6/$U46)*360</f>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="AO46" s="0" t="n">
         <f aca="false">(AO$6/$U46)*360</f>
-        <v>7.51521581965374</v>
+        <v>7.51521581965372</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12733,19 +12733,19 @@
       </c>
       <c r="U47" s="0" t="n">
         <f aca="false">300/(T47*SQRT($D$10))</f>
-        <v>116.444878222107</v>
+        <v>68.0158182519225</v>
       </c>
       <c r="W47" s="0" t="n">
         <f aca="false">(W$6/$U47)*360</f>
-        <v>10.2553652198701</v>
+        <v>10.2553652198702</v>
       </c>
       <c r="AA47" s="0" t="n">
         <f aca="false">(AA$6/$U47)*360</f>
-        <v>94.1628988369893</v>
+        <v>94.1628988369896</v>
       </c>
       <c r="AB47" s="0" t="n">
         <f aca="false">(AB$6/$U47)*360</f>
-        <v>9.41628988369893</v>
+        <v>9.41628988369896</v>
       </c>
       <c r="AF47" s="0" t="n">
         <f aca="false">(AF$6/$U47)*360</f>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="AG47" s="0" t="n">
         <f aca="false">(AG$6/$U47)*360</f>
-        <v>39.5552749281634</v>
+        <v>39.5552749281635</v>
       </c>
       <c r="AH47" s="0" t="n">
         <f aca="false">(AH$6/$U47)*360</f>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="AL47" s="0" t="n">
         <f aca="false">(AL$6/$U47)*360</f>
-        <v>248.852184254565</v>
+        <v>248.852184254566</v>
       </c>
       <c r="AM47" s="0" t="n">
         <f aca="false">(AM$6/$U47)*360</f>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="AN47" s="0" t="n">
         <f aca="false">(AN$6/$U47)*360</f>
-        <v>24.8852184254565</v>
+        <v>24.8852184254566</v>
       </c>
       <c r="AO47" s="0" t="n">
         <f aca="false">(AO$6/$U47)*360</f>
@@ -12787,7 +12787,7 @@
       </c>
       <c r="U48" s="0" t="n">
         <f aca="false">300/(T48*SQRT($D$10))</f>
-        <v>111.203995382281</v>
+        <v>64.9546021627676</v>
       </c>
       <c r="W48" s="0" t="n">
         <f aca="false">(W$6/$U48)*360</f>
@@ -12795,11 +12795,11 @@
       </c>
       <c r="AA48" s="0" t="n">
         <f aca="false">(AA$6/$U48)*360</f>
-        <v>98.6006595394403</v>
+        <v>98.6006595394404</v>
       </c>
       <c r="AB48" s="0" t="n">
         <f aca="false">(AB$6/$U48)*360</f>
-        <v>9.86006595394404</v>
+        <v>9.86006595394405</v>
       </c>
       <c r="AF48" s="0" t="n">
         <f aca="false">(AF$6/$U48)*360</f>
@@ -12807,11 +12807,11 @@
       </c>
       <c r="AG48" s="0" t="n">
         <f aca="false">(AG$6/$U48)*360</f>
-        <v>41.4194576032819</v>
+        <v>41.419457603282</v>
       </c>
       <c r="AH48" s="0" t="n">
         <f aca="false">(AH$6/$U48)*360</f>
-        <v>8.92355163028153</v>
+        <v>8.92355163028151</v>
       </c>
       <c r="AL48" s="0" t="n">
         <f aca="false">(AL$6/$U48)*360</f>
@@ -12819,7 +12819,7 @@
       </c>
       <c r="AM48" s="0" t="n">
         <f aca="false">(AM$6/$U48)*360</f>
-        <v>82.4027028556066</v>
+        <v>82.4027028556064</v>
       </c>
       <c r="AN48" s="0" t="n">
         <f aca="false">(AN$6/$U48)*360</f>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="AO48" s="0" t="n">
         <f aca="false">(AO$6/$U48)*360</f>
-        <v>8.24027028556066</v>
+        <v>8.24027028556064</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12841,11 +12841,11 @@
       </c>
       <c r="U49" s="0" t="n">
         <f aca="false">300/(T49*SQRT($D$10))</f>
-        <v>106.198991126041</v>
+        <v>62.0311634934152</v>
       </c>
       <c r="W49" s="0" t="n">
         <f aca="false">(W$6/$U49)*360</f>
-        <v>11.2447843570728</v>
+        <v>11.2447843570727</v>
       </c>
       <c r="AA49" s="0" t="n">
         <f aca="false">(AA$6/$U49)*360</f>
@@ -12865,23 +12865,23 @@
       </c>
       <c r="AH49" s="0" t="n">
         <f aca="false">(AH$6/$U49)*360</f>
-        <v>9.34410566207393</v>
+        <v>9.34410566207389</v>
       </c>
       <c r="AL49" s="0" t="n">
         <f aca="false">(AL$6/$U49)*360</f>
-        <v>272.860994097737</v>
+        <v>272.860994097736</v>
       </c>
       <c r="AM49" s="0" t="n">
         <f aca="false">(AM$6/$U49)*360</f>
-        <v>86.2862225966611</v>
+        <v>86.2862225966606</v>
       </c>
       <c r="AN49" s="0" t="n">
         <f aca="false">(AN$6/$U49)*360</f>
-        <v>27.2860994097737</v>
+        <v>27.2860994097736</v>
       </c>
       <c r="AO49" s="0" t="n">
         <f aca="false">(AO$6/$U49)*360</f>
-        <v>8.6286222596661</v>
+        <v>8.62862225966606</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12895,7 +12895,7 @@
       </c>
       <c r="U50" s="0" t="n">
         <f aca="false">300/(T50*SQRT($D$10))</f>
-        <v>101.419249168325</v>
+        <v>59.2393012384949</v>
       </c>
       <c r="W50" s="0" t="n">
         <f aca="false">(W$6/$U50)*360</f>
@@ -12915,27 +12915,27 @@
       </c>
       <c r="AG50" s="0" t="n">
         <f aca="false">(AG$6/$U50)*360</f>
-        <v>45.4155321580756</v>
+        <v>45.4155321580757</v>
       </c>
       <c r="AH50" s="0" t="n">
         <f aca="false">(AH$6/$U50)*360</f>
-        <v>9.78447979476167</v>
+        <v>9.78447979476164</v>
       </c>
       <c r="AL50" s="0" t="n">
         <f aca="false">(AL$6/$U50)*360</f>
-        <v>285.720536569289</v>
+        <v>285.720536569288</v>
       </c>
       <c r="AM50" s="0" t="n">
         <f aca="false">(AM$6/$U50)*360</f>
-        <v>90.3527669844384</v>
+        <v>90.3527669844381</v>
       </c>
       <c r="AN50" s="0" t="n">
         <f aca="false">(AN$6/$U50)*360</f>
-        <v>28.5720536569289</v>
+        <v>28.5720536569288</v>
       </c>
       <c r="AO50" s="0" t="n">
         <f aca="false">(AO$6/$U50)*360</f>
-        <v>9.03527669844384</v>
+        <v>9.03527669844381</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12949,11 +12949,11 @@
       </c>
       <c r="U51" s="0" t="n">
         <f aca="false">300/(T51*SQRT($D$10))</f>
-        <v>96.8546310356111</v>
+        <v>56.573093483853</v>
       </c>
       <c r="W51" s="0" t="n">
         <f aca="false">(W$6/$U51)*360</f>
-        <v>12.3296608678622</v>
+        <v>12.3296608678623</v>
       </c>
       <c r="AA51" s="0" t="n">
         <f aca="false">(AA$6/$U51)*360</f>
@@ -12969,11 +12969,11 @@
       </c>
       <c r="AG51" s="0" t="n">
         <f aca="false">(AG$6/$U51)*360</f>
-        <v>47.5559002476447</v>
+        <v>47.5559002476448</v>
       </c>
       <c r="AH51" s="0" t="n">
         <f aca="false">(AH$6/$U51)*360</f>
-        <v>10.2456081209222</v>
+        <v>10.2456081209221</v>
       </c>
       <c r="AL51" s="0" t="n">
         <f aca="false">(AL$6/$U51)*360</f>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="AM51" s="0" t="n">
         <f aca="false">(AM$6/$U51)*360</f>
-        <v>94.6109617047962</v>
+        <v>94.6109617047961</v>
       </c>
       <c r="AN51" s="0" t="n">
         <f aca="false">(AN$6/$U51)*360</f>
@@ -12989,7 +12989,7 @@
       </c>
       <c r="AO51" s="0" t="n">
         <f aca="false">(AO$6/$U51)*360</f>
-        <v>9.46109617047962</v>
+        <v>9.46109617047961</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="U52" s="0" t="n">
         <f aca="false">300/(T52*SQRT($D$10))</f>
-        <v>92.4954545608503</v>
+        <v>54.0268848453772</v>
       </c>
       <c r="W52" s="0" t="n">
         <f aca="false">(W$6/$U52)*360</f>
@@ -13011,11 +13011,11 @@
       </c>
       <c r="AA52" s="0" t="n">
         <f aca="false">(AA$6/$U52)*360</f>
-        <v>118.544066194089</v>
+        <v>118.54406619409</v>
       </c>
       <c r="AB52" s="0" t="n">
         <f aca="false">(AB$6/$U52)*360</f>
-        <v>11.8544066194089</v>
+        <v>11.854406619409</v>
       </c>
       <c r="AF52" s="0" t="n">
         <f aca="false">(AF$6/$U52)*360</f>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="AG52" s="0" t="n">
         <f aca="false">(AG$6/$U52)*360</f>
-        <v>49.7971407775696</v>
+        <v>49.7971407775697</v>
       </c>
       <c r="AH52" s="0" t="n">
         <f aca="false">(AH$6/$U52)*360</f>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="AM52" s="0" t="n">
         <f aca="false">(AM$6/$U52)*360</f>
-        <v>99.0698389596426</v>
+        <v>99.0698389596425</v>
       </c>
       <c r="AN52" s="0" t="n">
         <f aca="false">(AN$6/$U52)*360</f>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="U53" s="0" t="n">
         <f aca="false">300/(T53*SQRT($D$10))</f>
-        <v>88.3324733462946</v>
+        <v>51.5952744731692</v>
       </c>
       <c r="W53" s="0" t="n">
         <f aca="false">(W$6/$U53)*360</f>
@@ -13111,27 +13111,27 @@
       </c>
       <c r="U54" s="0" t="n">
         <f aca="false">300/(T54*SQRT($D$10))</f>
-        <v>84.3568571506475</v>
+        <v>49.2731045956175</v>
       </c>
       <c r="W54" s="0" t="n">
         <f aca="false">(W$6/$U54)*360</f>
-        <v>14.1563447772644</v>
+        <v>14.1563447772645</v>
       </c>
       <c r="AA54" s="0" t="n">
         <f aca="false">(AA$6/$U54)*360</f>
-        <v>129.980983863973</v>
+        <v>129.980983863974</v>
       </c>
       <c r="AB54" s="0" t="n">
         <f aca="false">(AB$6/$U54)*360</f>
-        <v>12.9980983863973</v>
+        <v>12.9980983863974</v>
       </c>
       <c r="AF54" s="0" t="n">
         <f aca="false">(AF$6/$U54)*360</f>
-        <v>253.437615656243</v>
+        <v>253.437615656244</v>
       </c>
       <c r="AG54" s="0" t="n">
         <f aca="false">(AG$6/$U54)*360</f>
-        <v>54.6014790928777</v>
+        <v>54.6014790928779</v>
       </c>
       <c r="AH54" s="0" t="n">
         <f aca="false">(AH$6/$U54)*360</f>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="U55" s="0" t="n">
         <f aca="false">300/(T55*SQRT($D$10))</f>
-        <v>80.5601731589377</v>
+        <v>47.0554495790736</v>
       </c>
       <c r="W55" s="0" t="n">
         <f aca="false">(W$6/$U55)*360</f>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="AF55" s="0" t="n">
         <f aca="false">(AF$6/$U55)*360</f>
-        <v>265.381762503603</v>
+        <v>265.381762503604</v>
       </c>
       <c r="AG55" s="0" t="n">
         <f aca="false">(AG$6/$U55)*360</f>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="AM55" s="0" t="n">
         <f aca="false">(AM$6/$U55)*360</f>
-        <v>113.747394382627</v>
+        <v>113.747394382626</v>
       </c>
       <c r="AN55" s="0" t="n">
         <f aca="false">(AN$6/$U55)*360</f>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="AO55" s="0" t="n">
         <f aca="false">(AO$6/$U55)*360</f>
-        <v>11.3747394382627</v>
+        <v>11.3747394382626</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="U56" s="0" t="n">
         <f aca="false">300/(T56*SQRT($D$10))</f>
-        <v>76.9343680953886</v>
+        <v>44.9376054799209</v>
       </c>
       <c r="W56" s="0" t="n">
         <f aca="false">(W$6/$U56)*360</f>
@@ -13243,23 +13243,23 @@
       </c>
       <c r="AH56" s="0" t="n">
         <f aca="false">(AH$6/$U56)*360</f>
-        <v>12.8984564227136</v>
+        <v>12.8984564227135</v>
       </c>
       <c r="AL56" s="0" t="n">
         <f aca="false">(AL$6/$U56)*360</f>
-        <v>376.653022676417</v>
+        <v>376.653022676416</v>
       </c>
       <c r="AM56" s="0" t="n">
         <f aca="false">(AM$6/$U56)*360</f>
-        <v>119.108143924453</v>
+        <v>119.108143924452</v>
       </c>
       <c r="AN56" s="0" t="n">
         <f aca="false">(AN$6/$U56)*360</f>
-        <v>37.6653022676417</v>
+        <v>37.6653022676416</v>
       </c>
       <c r="AO56" s="0" t="n">
         <f aca="false">(AO$6/$U56)*360</f>
-        <v>11.9108143924453</v>
+        <v>11.9108143924452</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13273,7 +13273,7 @@
       </c>
       <c r="U57" s="0" t="n">
         <f aca="false">300/(T57*SQRT($D$10))</f>
-        <v>73.4717511413402</v>
+        <v>42.9150800668807</v>
       </c>
       <c r="W57" s="0" t="n">
         <f aca="false">(W$6/$U57)*360</f>
@@ -13297,23 +13297,23 @@
       </c>
       <c r="AH57" s="0" t="n">
         <f aca="false">(AH$6/$U57)*360</f>
-        <v>13.5063419460139</v>
+        <v>13.5063419460138</v>
       </c>
       <c r="AL57" s="0" t="n">
         <f aca="false">(AL$6/$U57)*360</f>
-        <v>394.404132754139</v>
+        <v>394.404132754138</v>
       </c>
       <c r="AM57" s="0" t="n">
         <f aca="false">(AM$6/$U57)*360</f>
-        <v>124.72153780865</v>
+        <v>124.721537808649</v>
       </c>
       <c r="AN57" s="0" t="n">
         <f aca="false">(AN$6/$U57)*360</f>
-        <v>39.4404132754139</v>
+        <v>39.4404132754138</v>
       </c>
       <c r="AO57" s="0" t="n">
         <f aca="false">(AO$6/$U57)*360</f>
-        <v>12.472153780865</v>
+        <v>12.4721537808649</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13327,7 +13327,7 @@
       </c>
       <c r="U58" s="0" t="n">
         <f aca="false">300/(T58*SQRT($D$10))</f>
-        <v>70.1649776219919</v>
+        <v>40.9835832923872</v>
       </c>
       <c r="W58" s="0" t="n">
         <f aca="false">(W$6/$U58)*360</f>
@@ -13343,11 +13343,11 @@
       </c>
       <c r="AF58" s="0" t="n">
         <f aca="false">(AF$6/$U58)*360</f>
-        <v>304.699031697738</v>
+        <v>304.699031697739</v>
       </c>
       <c r="AG58" s="0" t="n">
         <f aca="false">(AG$6/$U58)*360</f>
-        <v>65.6454163908731</v>
+        <v>65.6454163908733</v>
       </c>
       <c r="AH58" s="0" t="n">
         <f aca="false">(AH$6/$U58)*360</f>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="U59" s="0" t="n">
         <f aca="false">300/(T59*SQRT($D$10))</f>
-        <v>67.0070334273622</v>
+        <v>39.1390181928218</v>
       </c>
       <c r="W59" s="0" t="n">
         <f aca="false">(W$6/$U59)*360</f>
@@ -13397,11 +13397,11 @@
       </c>
       <c r="AF59" s="0" t="n">
         <f aca="false">(AF$6/$U59)*360</f>
-        <v>319.059054654167</v>
+        <v>319.059054654168</v>
       </c>
       <c r="AG59" s="0" t="n">
         <f aca="false">(AG$6/$U59)*360</f>
-        <v>68.7391895515717</v>
+        <v>68.7391895515718</v>
       </c>
       <c r="AH59" s="0" t="n">
         <f aca="false">(AH$6/$U59)*360</f>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="AL59" s="0" t="n">
         <f aca="false">(AL$6/$U59)*360</f>
-        <v>432.455532033676</v>
+        <v>432.455532033675</v>
       </c>
       <c r="AM59" s="0" t="n">
         <f aca="false">(AM$6/$U59)*360</f>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="AN59" s="0" t="n">
         <f aca="false">(AN$6/$U59)*360</f>
-        <v>43.2455532033676</v>
+        <v>43.2455532033675</v>
       </c>
       <c r="AO59" s="0" t="n">
         <f aca="false">(AO$6/$U59)*360</f>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="U60" s="0" t="n">
         <f aca="false">300/(T60*SQRT($D$10))</f>
-        <v>63.9912201344214</v>
+        <v>37.3774721983029</v>
       </c>
       <c r="W60" s="0" t="n">
         <f aca="false">(W$6/$U60)*360</f>
@@ -13443,11 +13443,11 @@
       </c>
       <c r="AA60" s="0" t="n">
         <f aca="false">(AA$6/$U60)*360</f>
-        <v>171.348307862874</v>
+        <v>171.348307862875</v>
       </c>
       <c r="AB60" s="0" t="n">
         <f aca="false">(AB$6/$U60)*360</f>
-        <v>17.1348307862874</v>
+        <v>17.1348307862875</v>
       </c>
       <c r="AF60" s="0" t="n">
         <f aca="false">(AF$6/$U60)*360</f>
@@ -13455,11 +13455,11 @@
       </c>
       <c r="AG60" s="0" t="n">
         <f aca="false">(AG$6/$U60)*360</f>
-        <v>71.9787677493329</v>
+        <v>71.978767749333</v>
       </c>
       <c r="AH60" s="0" t="n">
         <f aca="false">(AH$6/$U60)*360</f>
-        <v>15.5073554184911</v>
+        <v>15.507355418491</v>
       </c>
       <c r="AL60" s="0" t="n">
         <f aca="false">(AL$6/$U60)*360</f>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="AM60" s="0" t="n">
         <f aca="false">(AM$6/$U60)*360</f>
-        <v>143.199485313662</v>
+        <v>143.199485313661</v>
       </c>
       <c r="AN60" s="0" t="n">
         <f aca="false">(AN$6/$U60)*360</f>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="AO60" s="0" t="n">
         <f aca="false">(AO$6/$U60)*360</f>
-        <v>14.3199485313662</v>
+        <v>14.3199485313661</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="U61" s="0" t="n">
         <f aca="false">300/(T61*SQRT($D$10))</f>
-        <v>61.1111407988381</v>
+        <v>35.6952088336017</v>
       </c>
       <c r="W61" s="0" t="n">
         <f aca="false">(W$6/$U61)*360</f>
@@ -13513,23 +13513,23 @@
       </c>
       <c r="AH61" s="0" t="n">
         <f aca="false">(AH$6/$U61)*360</f>
-        <v>16.2381945634738</v>
+        <v>16.2381945634737</v>
       </c>
       <c r="AL61" s="0" t="n">
         <f aca="false">(AL$6/$U61)*360</f>
-        <v>474.178061676426</v>
+        <v>474.178061676425</v>
       </c>
       <c r="AM61" s="0" t="n">
         <f aca="false">(AM$6/$U61)*360</f>
-        <v>149.948269138131</v>
+        <v>149.94826913813</v>
       </c>
       <c r="AN61" s="0" t="n">
         <f aca="false">(AN$6/$U61)*360</f>
-        <v>47.4178061676426</v>
+        <v>47.4178061676425</v>
       </c>
       <c r="AO61" s="0" t="n">
         <f aca="false">(AO$6/$U61)*360</f>
-        <v>14.9948269138131</v>
+        <v>14.994826913813</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="U62" s="0" t="n">
         <f aca="false">300/(T62*SQRT($D$10))</f>
-        <v>58.3606863862025</v>
+        <v>34.0886597925765</v>
       </c>
       <c r="W62" s="0" t="n">
         <f aca="false">(W$6/$U62)*360</f>
@@ -13559,11 +13559,11 @@
       </c>
       <c r="AF62" s="0" t="n">
         <f aca="false">(AF$6/$U62)*360</f>
-        <v>366.328809072554</v>
+        <v>366.328809072555</v>
       </c>
       <c r="AG62" s="0" t="n">
         <f aca="false">(AG$6/$U62)*360</f>
-        <v>78.9231494223978</v>
+        <v>78.9231494223979</v>
       </c>
       <c r="AH62" s="0" t="n">
         <f aca="false">(AH$6/$U62)*360</f>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="U63" s="0" t="n">
         <f aca="false">300/(T63*SQRT($D$10))</f>
-        <v>55.7340228139455</v>
+        <v>32.5544173693176</v>
       </c>
       <c r="W63" s="0" t="n">
         <f aca="false">(W$6/$U63)*360</f>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="AL63" s="0" t="n">
         <f aca="false">(AL$6/$U63)*360</f>
-        <v>519.92590571764</v>
+        <v>519.925905717639</v>
       </c>
       <c r="AM63" s="0" t="n">
         <f aca="false">(AM$6/$U63)*360</f>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="AN63" s="0" t="n">
         <f aca="false">(AN$6/$U63)*360</f>
-        <v>51.992590571764</v>
+        <v>51.9925905717639</v>
       </c>
       <c r="AO63" s="0" t="n">
         <f aca="false">(AO$6/$U63)*360</f>
@@ -13651,7 +13651,7 @@
       </c>
       <c r="U64" s="0" t="n">
         <f aca="false">300/(T64*SQRT($D$10))</f>
-        <v>53.2255785764675</v>
+        <v>31.0892272299457</v>
       </c>
       <c r="W64" s="0" t="n">
         <f aca="false">(W$6/$U64)*360</f>
@@ -13671,27 +13671,27 @@
       </c>
       <c r="AG64" s="0" t="n">
         <f aca="false">(AG$6/$U64)*360</f>
-        <v>86.5375125126097</v>
+        <v>86.5375125126098</v>
       </c>
       <c r="AH64" s="0" t="n">
         <f aca="false">(AH$6/$U64)*360</f>
-        <v>18.6439418946235</v>
+        <v>18.6439418946234</v>
       </c>
       <c r="AL64" s="0" t="n">
         <f aca="false">(AL$6/$U64)*360</f>
-        <v>544.429258748161</v>
+        <v>544.42925874816</v>
       </c>
       <c r="AM64" s="0" t="n">
         <f aca="false">(AM$6/$U64)*360</f>
-        <v>172.163648248134</v>
+        <v>172.163648248133</v>
       </c>
       <c r="AN64" s="0" t="n">
         <f aca="false">(AN$6/$U64)*360</f>
-        <v>54.4429258748161</v>
+        <v>54.442925874816</v>
       </c>
       <c r="AO64" s="0" t="n">
         <f aca="false">(AO$6/$U64)*360</f>
-        <v>17.2163648248134</v>
+        <v>17.2163648248133</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,11 +13705,11 @@
       </c>
       <c r="U65" s="0" t="n">
         <f aca="false">300/(T65*SQRT($D$10))</f>
-        <v>50.8300329272278</v>
+        <v>29.6899815097339</v>
       </c>
       <c r="W65" s="0" t="n">
         <f aca="false">(W$6/$U65)*360</f>
-        <v>23.4936844495201</v>
+        <v>23.4936844495202</v>
       </c>
       <c r="AA65" s="0" t="n">
         <f aca="false">(AA$6/$U65)*360</f>
@@ -13721,11 +13721,11 @@
       </c>
       <c r="AF65" s="0" t="n">
         <f aca="false">(AF$6/$U65)*360</f>
-        <v>420.601748795293</v>
+        <v>420.601748795294</v>
       </c>
       <c r="AG65" s="0" t="n">
         <f aca="false">(AG$6/$U65)*360</f>
-        <v>90.6158998292656</v>
+        <v>90.6158998292658</v>
       </c>
       <c r="AH65" s="0" t="n">
         <f aca="false">(AH$6/$U65)*360</f>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="AL65" s="0" t="n">
         <f aca="false">(AL$6/$U65)*360</f>
-        <v>570.08741922939</v>
+        <v>570.087419229389</v>
       </c>
       <c r="AM65" s="0" t="n">
         <f aca="false">(AM$6/$U65)*360</f>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="AN65" s="0" t="n">
         <f aca="false">(AN$6/$U65)*360</f>
-        <v>57.008741922939</v>
+        <v>57.0087419229389</v>
       </c>
       <c r="AO65" s="0" t="n">
         <f aca="false">(AO$6/$U65)*360</f>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="U66" s="0" t="n">
         <f aca="false">300/(T66*SQRT($D$10))</f>
-        <v>48.5423045927281</v>
+        <v>28.3537122209094</v>
       </c>
       <c r="W66" s="0" t="n">
         <f aca="false">(W$6/$U66)*360</f>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="AF66" s="0" t="n">
         <f aca="false">(AF$6/$U66)*360</f>
-        <v>440.424098523685</v>
+        <v>440.424098523684</v>
       </c>
       <c r="AG66" s="0" t="n">
         <f aca="false">(AG$6/$U66)*360</f>
@@ -13783,23 +13783,23 @@
       </c>
       <c r="AH66" s="0" t="n">
         <f aca="false">(AH$6/$U66)*360</f>
-        <v>20.4426757776151</v>
+        <v>20.442675777615</v>
       </c>
       <c r="AL66" s="0" t="n">
         <f aca="false">(AL$6/$U66)*360</f>
-        <v>596.954811559755</v>
+        <v>596.954811559754</v>
       </c>
       <c r="AM66" s="0" t="n">
         <f aca="false">(AM$6/$U66)*360</f>
-        <v>188.773686472544</v>
+        <v>188.773686472543</v>
       </c>
       <c r="AN66" s="0" t="n">
         <f aca="false">(AN$6/$U66)*360</f>
-        <v>59.6954811559755</v>
+        <v>59.6954811559754</v>
       </c>
       <c r="AO66" s="0" t="n">
         <f aca="false">(AO$6/$U66)*360</f>
-        <v>18.8773686472544</v>
+        <v>18.8773686472543</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13813,7 +13813,7 @@
       </c>
       <c r="U67" s="0" t="n">
         <f aca="false">300/(T67*SQRT($D$10))</f>
-        <v>46.3575409944496</v>
+        <v>27.0775849571539</v>
       </c>
       <c r="W67" s="0" t="n">
         <f aca="false">(W$6/$U67)*360</f>
@@ -13821,11 +13821,11 @@
       </c>
       <c r="AA67" s="0" t="n">
         <f aca="false">(AA$6/$U67)*360</f>
-        <v>236.526507940243</v>
+        <v>236.526507940242</v>
       </c>
       <c r="AB67" s="0" t="n">
         <f aca="false">(AB$6/$U67)*360</f>
-        <v>23.6526507940243</v>
+        <v>23.6526507940242</v>
       </c>
       <c r="AF67" s="0" t="n">
         <f aca="false">(AF$6/$U67)*360</f>
@@ -13837,11 +13837,11 @@
       </c>
       <c r="AH67" s="0" t="n">
         <f aca="false">(AH$6/$U67)*360</f>
-        <v>21.4061094052894</v>
+        <v>21.4061094052893</v>
       </c>
       <c r="AL67" s="0" t="n">
         <f aca="false">(AL$6/$U67)*360</f>
-        <v>625.088425080564</v>
+        <v>625.088425080563</v>
       </c>
       <c r="AM67" s="0" t="n">
         <f aca="false">(AM$6/$U67)*360</f>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="AN67" s="0" t="n">
         <f aca="false">(AN$6/$U67)*360</f>
-        <v>62.5088425080564</v>
+        <v>62.5088425080563</v>
       </c>
       <c r="AO67" s="0" t="n">
         <f aca="false">(AO$6/$U67)*360</f>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="U68" s="0" t="n">
         <f aca="false">300/(T68*SQRT($D$10))</f>
-        <v>44.2711079558842</v>
+        <v>25.8588928814475</v>
       </c>
       <c r="W68" s="0" t="n">
         <f aca="false">(W$6/$U68)*360</f>
@@ -13891,23 +13891,23 @@
       </c>
       <c r="AH68" s="0" t="n">
         <f aca="false">(AH$6/$U68)*360</f>
-        <v>22.4149482609794</v>
+        <v>22.4149482609793</v>
       </c>
       <c r="AL68" s="0" t="n">
         <f aca="false">(AL$6/$U68)*360</f>
-        <v>654.547934958035</v>
+        <v>654.547934958034</v>
       </c>
       <c r="AM68" s="0" t="n">
         <f aca="false">(AM$6/$U68)*360</f>
-        <v>206.986231222714</v>
+        <v>206.986231222713</v>
       </c>
       <c r="AN68" s="0" t="n">
         <f aca="false">(AN$6/$U68)*360</f>
-        <v>65.4547934958035</v>
+        <v>65.4547934958034</v>
       </c>
       <c r="AO68" s="0" t="n">
         <f aca="false">(AO$6/$U68)*360</f>
-        <v>20.6986231222714</v>
+        <v>20.6986231222713</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="U69" s="0" t="n">
         <f aca="false">300/(T69*SQRT($D$10))</f>
-        <v>42.278579872824</v>
+        <v>24.6950509845049</v>
       </c>
       <c r="W69" s="0" t="n">
         <f aca="false">(W$6/$U69)*360</f>
@@ -13945,23 +13945,23 @@
       </c>
       <c r="AH69" s="0" t="n">
         <f aca="false">(AH$6/$U69)*360</f>
-        <v>23.4713322271554</v>
+        <v>23.4713322271553</v>
       </c>
       <c r="AL69" s="0" t="n">
         <f aca="false">(AL$6/$U69)*360</f>
-        <v>685.395828762322</v>
+        <v>685.395828762321</v>
       </c>
       <c r="AM69" s="0" t="n">
         <f aca="false">(AM$6/$U69)*360</f>
-        <v>216.741191766768</v>
+        <v>216.741191766767</v>
       </c>
       <c r="AN69" s="0" t="n">
         <f aca="false">(AN$6/$U69)*360</f>
-        <v>68.5395828762322</v>
+        <v>68.5395828762321</v>
       </c>
       <c r="AO69" s="0" t="n">
         <f aca="false">(AO$6/$U69)*360</f>
-        <v>21.6741191766768</v>
+        <v>21.6741191766767</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="U70" s="0" t="n">
         <f aca="false">300/(T70*SQRT($D$10))</f>
-        <v>40.375730326062</v>
+        <v>23.5835906016235</v>
       </c>
       <c r="W70" s="0" t="n">
         <f aca="false">(W$6/$U70)*360</f>
-        <v>29.5767963701743</v>
+        <v>29.5767963701744</v>
       </c>
       <c r="AA70" s="0" t="n">
         <f aca="false">(AA$6/$U70)*360</f>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="AF70" s="0" t="n">
         <f aca="false">(AF$6/$U70)*360</f>
-        <v>529.506229803461</v>
+        <v>529.506229803462</v>
       </c>
       <c r="AG70" s="0" t="n">
         <f aca="false">(AG$6/$U70)*360</f>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="AH70" s="0" t="n">
         <f aca="false">(AH$6/$U70)*360</f>
-        <v>24.5775020358415</v>
+        <v>24.5775020358414</v>
       </c>
       <c r="AL70" s="0" t="n">
         <f aca="false">(AL$6/$U70)*360</f>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="AM70" s="0" t="n">
         <f aca="false">(AM$6/$U70)*360</f>
-        <v>226.955889437558</v>
+        <v>226.955889437557</v>
       </c>
       <c r="AN70" s="0" t="n">
         <f aca="false">(AN$6/$U70)*360</f>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="AO70" s="0" t="n">
         <f aca="false">(AO$6/$U70)*360</f>
-        <v>22.6955889437558</v>
+        <v>22.6955889437557</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="U71" s="0" t="n">
         <f aca="false">300/(T71*SQRT($D$10))</f>
-        <v>38.5585231165901</v>
+        <v>22.5221541763152</v>
       </c>
       <c r="W71" s="0" t="n">
         <f aca="false">(W$6/$U71)*360</f>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="AF71" s="0" t="n">
         <f aca="false">(AF$6/$U71)*360</f>
-        <v>554.461089598004</v>
+        <v>554.461089598005</v>
       </c>
       <c r="AG71" s="0" t="n">
         <f aca="false">(AG$6/$U71)*360</f>
@@ -14053,23 +14053,23 @@
       </c>
       <c r="AH71" s="0" t="n">
         <f aca="false">(AH$6/$U71)*360</f>
-        <v>25.7358040215087</v>
+        <v>25.7358040215086</v>
       </c>
       <c r="AL71" s="0" t="n">
         <f aca="false">(AL$6/$U71)*360</f>
-        <v>751.521581965374</v>
+        <v>751.521581965373</v>
       </c>
       <c r="AM71" s="0" t="n">
         <f aca="false">(AM$6/$U71)*360</f>
-        <v>237.65199097835</v>
+        <v>237.651990978349</v>
       </c>
       <c r="AN71" s="0" t="n">
         <f aca="false">(AN$6/$U71)*360</f>
-        <v>75.1521581965374</v>
+        <v>75.1521581965373</v>
       </c>
       <c r="AO71" s="0" t="n">
         <f aca="false">(AO$6/$U71)*360</f>
-        <v>23.765199097835</v>
+        <v>23.7651990978349</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="U72" s="0" t="n">
         <f aca="false">300/(T72*SQRT($D$10))</f>
-        <v>36.8231037042797</v>
+        <v>21.5084902596128</v>
       </c>
       <c r="W72" s="0" t="n">
         <f aca="false">(W$6/$U72)*360</f>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="AG72" s="0" t="n">
         <f aca="false">(AG$6/$U72)*360</f>
-        <v>125.084762247149</v>
+        <v>125.08476224715</v>
       </c>
       <c r="AH72" s="0" t="n">
         <f aca="false">(AH$6/$U72)*360</f>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="AL72" s="0" t="n">
         <f aca="false">(AL$6/$U72)*360</f>
-        <v>786.939702952317</v>
+        <v>786.939702952316</v>
       </c>
       <c r="AM72" s="0" t="n">
         <f aca="false">(AM$6/$U72)*360</f>
@@ -14119,7 +14119,7 @@
       </c>
       <c r="AN72" s="0" t="n">
         <f aca="false">(AN$6/$U72)*360</f>
-        <v>78.6939702952317</v>
+        <v>78.6939702952316</v>
       </c>
       <c r="AO72" s="0" t="n">
         <f aca="false">(AO$6/$U72)*360</f>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="U73" s="0" t="n">
         <f aca="false">300/(T73*SQRT($D$10))</f>
-        <v>35.1657910318856</v>
+        <v>20.5404487344445</v>
       </c>
       <c r="W73" s="0" t="n">
         <f aca="false">(W$6/$U73)*360</f>
@@ -14161,23 +14161,23 @@
       </c>
       <c r="AH73" s="0" t="n">
         <f aca="false">(AH$6/$U73)*360</f>
-        <v>28.2187479697984</v>
+        <v>28.2187479697983</v>
       </c>
       <c r="AL73" s="0" t="n">
         <f aca="false">(AL$6/$U73)*360</f>
-        <v>824.027028556066</v>
+        <v>824.027028556065</v>
       </c>
       <c r="AM73" s="0" t="n">
         <f aca="false">(AM$6/$U73)*360</f>
-        <v>260.580226377778</v>
+        <v>260.580226377777</v>
       </c>
       <c r="AN73" s="0" t="n">
         <f aca="false">(AN$6/$U73)*360</f>
-        <v>82.4027028556066</v>
+        <v>82.4027028556065</v>
       </c>
       <c r="AO73" s="0" t="n">
         <f aca="false">(AO$6/$U73)*360</f>
-        <v>26.0580226377778</v>
+        <v>26.0580226377777</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="U74" s="0" t="n">
         <f aca="false">300/(T74*SQRT($D$10))</f>
-        <v>33.5830697170298</v>
+        <v>19.6159762549479</v>
       </c>
       <c r="W74" s="0" t="n">
         <f aca="false">(W$6/$U74)*360</f>
@@ -14207,7 +14207,7 @@
       </c>
       <c r="AF74" s="0" t="n">
         <f aca="false">(AF$6/$U74)*360</f>
-        <v>636.606508001056</v>
+        <v>636.606508001057</v>
       </c>
       <c r="AG74" s="0" t="n">
         <f aca="false">(AG$6/$U74)*360</f>
@@ -14215,23 +14215,23 @@
       </c>
       <c r="AH74" s="0" t="n">
         <f aca="false">(AH$6/$U74)*360</f>
-        <v>29.5486565894293</v>
+        <v>29.5486565894292</v>
       </c>
       <c r="AL74" s="0" t="n">
         <f aca="false">(AL$6/$U74)*360</f>
-        <v>862.862225966611</v>
+        <v>862.862225966609</v>
       </c>
       <c r="AM74" s="0" t="n">
         <f aca="false">(AM$6/$U74)*360</f>
-        <v>272.860994097737</v>
+        <v>272.860994097736</v>
       </c>
       <c r="AN74" s="0" t="n">
         <f aca="false">(AN$6/$U74)*360</f>
-        <v>86.2862225966611</v>
+        <v>86.286222596661</v>
       </c>
       <c r="AO74" s="0" t="n">
         <f aca="false">(AO$6/$U74)*360</f>
-        <v>27.2860994097737</v>
+        <v>27.2860994097736</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="U75" s="0" t="n">
         <f aca="false">300/(T75*SQRT($D$10))</f>
-        <v>32.0715825956045</v>
+        <v>18.7331118910477</v>
       </c>
       <c r="W75" s="0" t="n">
         <f aca="false">(W$6/$U75)*360</f>
@@ -14257,15 +14257,15 @@
       </c>
       <c r="AB75" s="0" t="n">
         <f aca="false">(AB$6/$U75)*360</f>
-        <v>34.1884821412479</v>
+        <v>34.188482141248</v>
       </c>
       <c r="AF75" s="0" t="n">
         <f aca="false">(AF$6/$U75)*360</f>
-        <v>666.6088484029</v>
+        <v>666.608848402901</v>
       </c>
       <c r="AG75" s="0" t="n">
         <f aca="false">(AG$6/$U75)*360</f>
-        <v>143.616522768141</v>
+        <v>143.616522768142</v>
       </c>
       <c r="AH75" s="0" t="n">
         <f aca="false">(AH$6/$U75)*360</f>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="AM75" s="0" t="n">
         <f aca="false">(AM$6/$U75)*360</f>
-        <v>285.720536569289</v>
+        <v>285.720536569288</v>
       </c>
       <c r="AN75" s="0" t="n">
         <f aca="false">(AN$6/$U75)*360</f>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="AO75" s="0" t="n">
         <f aca="false">(AO$6/$U75)*360</f>
-        <v>28.5720536569289</v>
+        <v>28.5720536569288</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14299,7 +14299,7 @@
       </c>
       <c r="U76" s="0" t="n">
         <f aca="false">300/(T76*SQRT($D$10))</f>
-        <v>30.6281236007764</v>
+        <v>17.8899829690606</v>
       </c>
       <c r="W76" s="0" t="n">
         <f aca="false">(W$6/$U76)*360</f>
@@ -14307,11 +14307,11 @@
       </c>
       <c r="AA76" s="0" t="n">
         <f aca="false">(AA$6/$U76)*360</f>
-        <v>357.99735664629</v>
+        <v>357.997356646291</v>
       </c>
       <c r="AB76" s="0" t="n">
         <f aca="false">(AB$6/$U76)*360</f>
-        <v>35.799735664629</v>
+        <v>35.7997356646291</v>
       </c>
       <c r="AF76" s="0" t="n">
         <f aca="false">(AF$6/$U76)*360</f>
@@ -14327,7 +14327,7 @@
       </c>
       <c r="AL76" s="0" t="n">
         <f aca="false">(AL$6/$U76)*360</f>
-        <v>946.109617047963</v>
+        <v>946.109617047962</v>
       </c>
       <c r="AM76" s="0" t="n">
         <f aca="false">(AM$6/$U76)*360</f>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="AN76" s="0" t="n">
         <f aca="false">(AN$6/$U76)*360</f>
-        <v>94.6109617047963</v>
+        <v>94.6109617047962</v>
       </c>
       <c r="AO76" s="0" t="n">
         <f aca="false">(AO$6/$U76)*360</f>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="U77" s="0" t="n">
         <f aca="false">300/(T77*SQRT($D$10))</f>
-        <v>29.2496309624896</v>
+        <v>17.0848010995026</v>
       </c>
       <c r="W77" s="0" t="n">
         <f aca="false">(W$6/$U77)*360</f>
@@ -14365,11 +14365,11 @@
       </c>
       <c r="AB77" s="0" t="n">
         <f aca="false">(AB$6/$U77)*360</f>
-        <v>37.486925227109</v>
+        <v>37.4869252271091</v>
       </c>
       <c r="AF77" s="0" t="n">
         <f aca="false">(AF$6/$U77)*360</f>
-        <v>730.922067629897</v>
+        <v>730.922067629898</v>
       </c>
       <c r="AG77" s="0" t="n">
         <f aca="false">(AG$6/$U77)*360</f>
@@ -14381,11 +14381,11 @@
       </c>
       <c r="AL77" s="0" t="n">
         <f aca="false">(AL$6/$U77)*360</f>
-        <v>990.698389596426</v>
+        <v>990.698389596425</v>
       </c>
       <c r="AM77" s="0" t="n">
         <f aca="false">(AM$6/$U77)*360</f>
-        <v>313.286338538557</v>
+        <v>313.286338538556</v>
       </c>
       <c r="AN77" s="0" t="n">
         <f aca="false">(AN$6/$U77)*360</f>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="AO77" s="0" t="n">
         <f aca="false">(AO$6/$U77)*360</f>
-        <v>31.3286338538557</v>
+        <v>31.3286338538556</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="U78" s="0" t="n">
         <f aca="false">300/(T78*SQRT($D$10))</f>
-        <v>27.9331807130406</v>
+        <v>16.3158583836759</v>
       </c>
       <c r="W78" s="0" t="n">
         <f aca="false">(W$6/$U78)*360</f>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="AF78" s="0" t="n">
         <f aca="false">(AF$6/$U78)*360</f>
-        <v>765.369363415655</v>
+        <v>765.369363415656</v>
       </c>
       <c r="AG78" s="0" t="n">
         <f aca="false">(AG$6/$U78)*360</f>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="AH78" s="0" t="n">
         <f aca="false">(AH$6/$U78)*360</f>
-        <v>35.5252989081943</v>
+        <v>35.5252989081942</v>
       </c>
       <c r="AL78" s="0" t="n">
         <f aca="false">(AL$6/$U78)*360</f>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="U79" s="0" t="n">
         <f aca="false">300/(T79*SQRT($D$10))</f>
-        <v>26.6759804849508</v>
+        <v>15.5815237909862</v>
       </c>
       <c r="W79" s="0" t="n">
         <f aca="false">(W$6/$U79)*360</f>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="AF79" s="0" t="n">
         <f aca="false">(AF$6/$U79)*360</f>
-        <v>801.440110236076</v>
+        <v>801.440110236077</v>
       </c>
       <c r="AG79" s="0" t="n">
         <f aca="false">(AG$6/$U79)*360</f>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="AH79" s="0" t="n">
         <f aca="false">(AH$6/$U79)*360</f>
-        <v>37.1995546648117</v>
+        <v>37.1995546648116</v>
       </c>
       <c r="AL79" s="0" t="n">
         <f aca="false">(AL$6/$U79)*360</f>
@@ -14493,7 +14493,7 @@
       </c>
       <c r="AM79" s="0" t="n">
         <f aca="false">(AM$6/$U79)*360</f>
-        <v>343.51163935706</v>
+        <v>343.511639357059</v>
       </c>
       <c r="AN79" s="0" t="n">
         <f aca="false">(AN$6/$U79)*360</f>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="AO79" s="0" t="n">
         <f aca="false">(AO$6/$U79)*360</f>
-        <v>34.351163935706</v>
+        <v>34.3511639357059</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14515,7 +14515,7 @@
       </c>
       <c r="U80" s="0" t="n">
         <f aca="false">300/(T80*SQRT($D$10))</f>
-        <v>25.4753635879805</v>
+        <v>14.8802396993084</v>
       </c>
       <c r="W80" s="0" t="n">
         <f aca="false">(W$6/$U80)*360</f>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="AF80" s="0" t="n">
         <f aca="false">(AF$6/$U80)*360</f>
-        <v>839.210818981256</v>
+        <v>839.210818981257</v>
       </c>
       <c r="AG80" s="0" t="n">
         <f aca="false">(AG$6/$U80)*360</f>
@@ -14539,15 +14539,15 @@
       </c>
       <c r="AH80" s="0" t="n">
         <f aca="false">(AH$6/$U80)*360</f>
-        <v>38.9527156643043</v>
+        <v>38.9527156643042</v>
       </c>
       <c r="AL80" s="0" t="n">
         <f aca="false">(AL$6/$U80)*360</f>
-        <v>1137.47394382627</v>
+        <v>1137.47394382626</v>
       </c>
       <c r="AM80" s="0" t="n">
         <f aca="false">(AM$6/$U80)*360</f>
-        <v>359.700844158542</v>
+        <v>359.700844158541</v>
       </c>
       <c r="AN80" s="0" t="n">
         <f aca="false">(AN$6/$U80)*360</f>
@@ -14555,7 +14555,7 @@
       </c>
       <c r="AO80" s="0" t="n">
         <f aca="false">(AO$6/$U80)*360</f>
-        <v>35.9700844158542</v>
+        <v>35.9700844158541</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="U81" s="0" t="n">
         <f aca="false">300/(T81*SQRT($D$10))</f>
-        <v>24.3287833527218</v>
+        <v>14.2105185910614</v>
       </c>
       <c r="W81" s="0" t="n">
         <f aca="false">(W$6/$U81)*360</f>
@@ -14577,11 +14577,11 @@
       </c>
       <c r="AA81" s="0" t="n">
         <f aca="false">(AA$6/$U81)*360</f>
-        <v>450.691969637154</v>
+        <v>450.691969637155</v>
       </c>
       <c r="AB81" s="0" t="n">
         <f aca="false">(AB$6/$U81)*360</f>
-        <v>45.0691969637154</v>
+        <v>45.0691969637155</v>
       </c>
       <c r="AF81" s="0" t="n">
         <f aca="false">(AF$6/$U81)*360</f>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="AH81" s="0" t="n">
         <f aca="false">(AH$6/$U81)*360</f>
-        <v>40.7885005962025</v>
+        <v>40.7885005962024</v>
       </c>
       <c r="AL81" s="0" t="n">
         <f aca="false">(AL$6/$U81)*360</f>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="AM81" s="0" t="n">
         <f aca="false">(AM$6/$U81)*360</f>
-        <v>376.653022676417</v>
+        <v>376.653022676416</v>
       </c>
       <c r="AN81" s="0" t="n">
         <f aca="false">(AN$6/$U81)*360</f>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="AO81" s="0" t="n">
         <f aca="false">(AO$6/$U81)*360</f>
-        <v>37.6653022676417</v>
+        <v>37.6653022676416</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="U82" s="0" t="n">
         <f aca="false">300/(T82*SQRT($D$10))</f>
-        <v>23.2338077287711</v>
+        <v>13.5709398979834</v>
       </c>
       <c r="W82" s="0" t="n">
         <f aca="false">(W$6/$U82)*360</f>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="AA82" s="0" t="n">
         <f aca="false">(AA$6/$U82)*360</f>
-        <v>471.932427784354</v>
+        <v>471.932427784353</v>
       </c>
       <c r="AB82" s="0" t="n">
         <f aca="false">(AB$6/$U82)*360</f>
@@ -14647,7 +14647,7 @@
       </c>
       <c r="AH82" s="0" t="n">
         <f aca="false">(AH$6/$U82)*360</f>
-        <v>42.7108034064748</v>
+        <v>42.7108034064746</v>
       </c>
       <c r="AL82" s="0" t="n">
         <f aca="false">(AL$6/$U82)*360</f>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="AM82" s="0" t="n">
         <f aca="false">(AM$6/$U82)*360</f>
-        <v>394.404132754139</v>
+        <v>394.404132754138</v>
       </c>
       <c r="AN82" s="0" t="n">
         <f aca="false">(AN$6/$U82)*360</f>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="AO82" s="0" t="n">
         <f aca="false">(AO$6/$U82)*360</f>
-        <v>39.4404132754139</v>
+        <v>39.4404132754138</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14677,7 +14677,7 @@
       </c>
       <c r="U83" s="0" t="n">
         <f aca="false">300/(T83*SQRT($D$10))</f>
-        <v>22.1881141260239</v>
+        <v>12.9601469879166</v>
       </c>
       <c r="W83" s="0" t="n">
         <f aca="false">(W$6/$U83)*360</f>
@@ -14697,11 +14697,11 @@
       </c>
       <c r="AG83" s="0" t="n">
         <f aca="false">(AG$6/$U83)*360</f>
-        <v>207.589033745309</v>
+        <v>207.58903374531</v>
       </c>
       <c r="AH83" s="0" t="n">
         <f aca="false">(AH$6/$U83)*360</f>
-        <v>44.7237015571094</v>
+        <v>44.7237015571092</v>
       </c>
       <c r="AL83" s="0" t="n">
         <f aca="false">(AL$6/$U83)*360</f>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="AM83" s="0" t="n">
         <f aca="false">(AM$6/$U83)*360</f>
-        <v>412.991826876116</v>
+        <v>412.991826876115</v>
       </c>
       <c r="AN83" s="0" t="n">
         <f aca="false">(AN$6/$U83)*360</f>
@@ -14717,7 +14717,7 @@
       </c>
       <c r="AO83" s="0" t="n">
         <f aca="false">(AO$6/$U83)*360</f>
-        <v>41.2991826876116</v>
+        <v>41.2991826876115</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="U84" s="0" t="n">
         <f aca="false">300/(T84*SQRT($D$10))</f>
-        <v>21.1894844881503</v>
+        <v>12.3768442872084</v>
       </c>
       <c r="W84" s="0" t="n">
         <f aca="false">(W$6/$U84)*360</f>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="AH84" s="0" t="n">
         <f aca="false">(AH$6/$U84)*360</f>
-        <v>46.8314646749577</v>
+        <v>46.8314646749576</v>
       </c>
       <c r="AL84" s="0" t="n">
         <f aca="false">(AL$6/$U84)*360</f>
@@ -14763,7 +14763,7 @@
       </c>
       <c r="AM84" s="0" t="n">
         <f aca="false">(AM$6/$U84)*360</f>
-        <v>432.455532033676</v>
+        <v>432.455532033675</v>
       </c>
       <c r="AN84" s="0" t="n">
         <f aca="false">(AN$6/$U84)*360</f>
@@ -14771,7 +14771,7 @@
       </c>
       <c r="AO84" s="0" t="n">
         <f aca="false">(AO$6/$U84)*360</f>
-        <v>43.2455532033676</v>
+        <v>43.2455532033675</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14785,11 +14785,11 @@
       </c>
       <c r="U85" s="0" t="n">
         <f aca="false">300/(T85*SQRT($D$10))</f>
-        <v>20.2358005877998</v>
+        <v>11.8197945326258</v>
       </c>
       <c r="W85" s="0" t="n">
         <f aca="false">(W$6/$U85)*360</f>
-        <v>59.0134671949172</v>
+        <v>59.0134671949173</v>
       </c>
       <c r="AA85" s="0" t="n">
         <f aca="false">(AA$6/$U85)*360</f>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="AH85" s="0" t="n">
         <f aca="false">(AH$6/$U85)*360</f>
-        <v>49.0385636081854</v>
+        <v>49.0385636081853</v>
       </c>
       <c r="AL85" s="0" t="n">
         <f aca="false">(AL$6/$U85)*360</f>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="AM85" s="0" t="n">
         <f aca="false">(AM$6/$U85)*360</f>
-        <v>452.836533355002</v>
+        <v>452.836533355001</v>
       </c>
       <c r="AN85" s="0" t="n">
         <f aca="false">(AN$6/$U85)*360</f>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="AO85" s="0" t="n">
         <f aca="false">(AO$6/$U85)*360</f>
-        <v>45.2836533355002</v>
+        <v>45.2836533355001</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14839,7 +14839,7 @@
       </c>
       <c r="U86" s="0" t="n">
         <f aca="false">300/(T86*SQRT($D$10))</f>
-        <v>19.325039533557</v>
+        <v>11.2878161469544</v>
       </c>
       <c r="W86" s="0" t="n">
         <f aca="false">(W$6/$U86)*360</f>
@@ -14859,19 +14859,19 @@
       </c>
       <c r="AG86" s="0" t="n">
         <f aca="false">(AG$6/$U86)*360</f>
-        <v>238.344100877715</v>
+        <v>238.344100877716</v>
       </c>
       <c r="AH86" s="0" t="n">
         <f aca="false">(AH$6/$U86)*360</f>
-        <v>51.3496799095409</v>
+        <v>51.3496799095408</v>
       </c>
       <c r="AL86" s="0" t="n">
         <f aca="false">(AL$6/$U86)*360</f>
-        <v>1499.48269138131</v>
+        <v>1499.4826913813</v>
       </c>
       <c r="AM86" s="0" t="n">
         <f aca="false">(AM$6/$U86)*360</f>
-        <v>474.178061676426</v>
+        <v>474.178061676425</v>
       </c>
       <c r="AN86" s="0" t="n">
         <f aca="false">(AN$6/$U86)*360</f>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="AO86" s="0" t="n">
         <f aca="false">(AO$6/$U86)*360</f>
-        <v>47.4178061676426</v>
+        <v>47.4178061676425</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14893,19 +14893,19 @@
       </c>
       <c r="U87" s="0" t="n">
         <f aca="false">300/(T87*SQRT($D$10))</f>
-        <v>18.4552694791181</v>
+        <v>10.7797807327145</v>
       </c>
       <c r="W87" s="0" t="n">
         <f aca="false">(W$6/$U87)*360</f>
-        <v>64.7069800580379</v>
+        <v>64.7069800580378</v>
       </c>
       <c r="AA87" s="0" t="n">
         <f aca="false">(AA$6/$U87)*360</f>
-        <v>594.127725987439</v>
+        <v>594.127725987438</v>
       </c>
       <c r="AB87" s="0" t="n">
         <f aca="false">(AB$6/$U87)*360</f>
-        <v>59.4127725987439</v>
+        <v>59.4127725987438</v>
       </c>
       <c r="AF87" s="0" t="n">
         <f aca="false">(AF$6/$U87)*360</f>
@@ -14913,11 +14913,11 @@
       </c>
       <c r="AG87" s="0" t="n">
         <f aca="false">(AG$6/$U87)*360</f>
-        <v>249.576912288579</v>
+        <v>249.57691228858</v>
       </c>
       <c r="AH87" s="0" t="n">
         <f aca="false">(AH$6/$U87)*360</f>
-        <v>53.769715766556</v>
+        <v>53.7697157665558</v>
       </c>
       <c r="AL87" s="0" t="n">
         <f aca="false">(AL$6/$U87)*360</f>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="AM87" s="0" t="n">
         <f aca="false">(AM$6/$U87)*360</f>
-        <v>496.525385240826</v>
+        <v>496.525385240825</v>
       </c>
       <c r="AN87" s="0" t="n">
         <f aca="false">(AN$6/$U87)*360</f>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="AO87" s="0" t="n">
         <f aca="false">(AO$6/$U87)*360</f>
-        <v>49.6525385240826</v>
+        <v>49.6525385240825</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="U88" s="0" t="n">
         <f aca="false">300/(T88*SQRT($D$10))</f>
-        <v>17.6246455255855</v>
+        <v>10.294610678679</v>
       </c>
       <c r="W88" s="0" t="n">
         <f aca="false">(W$6/$U88)*360</f>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="AB88" s="0" t="n">
         <f aca="false">(AB$6/$U88)*360</f>
-        <v>62.2128103070009</v>
+        <v>62.212810307001</v>
       </c>
       <c r="AF88" s="0" t="n">
         <f aca="false">(AF$6/$U88)*360</f>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="AH88" s="0" t="n">
         <f aca="false">(AH$6/$U88)*360</f>
-        <v>56.3038043997433</v>
+        <v>56.3038043997432</v>
       </c>
       <c r="AL88" s="0" t="n">
         <f aca="false">(AL$6/$U88)*360</f>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="AM88" s="0" t="n">
         <f aca="false">(AM$6/$U88)*360</f>
-        <v>519.92590571764</v>
+        <v>519.925905717638</v>
       </c>
       <c r="AN88" s="0" t="n">
         <f aca="false">(AN$6/$U88)*360</f>
@@ -14987,7 +14987,7 @@
       </c>
       <c r="AO88" s="0" t="n">
         <f aca="false">(AO$6/$U88)*360</f>
-        <v>51.992590571764</v>
+        <v>51.9925905717638</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15001,11 +15001,11 @@
       </c>
       <c r="U89" s="0" t="n">
         <f aca="false">300/(T89*SQRT($D$10))</f>
-        <v>16.83140580819</v>
+        <v>9.83127687411557</v>
       </c>
       <c r="W89" s="0" t="n">
         <f aca="false">(W$6/$U89)*360</f>
-        <v>70.9497927719104</v>
+        <v>70.9497927719105</v>
       </c>
       <c r="AA89" s="0" t="n">
         <f aca="false">(AA$6/$U89)*360</f>
@@ -15013,7 +15013,7 @@
       </c>
       <c r="AB89" s="0" t="n">
         <f aca="false">(AB$6/$U89)*360</f>
-        <v>65.1448097269359</v>
+        <v>65.144809726936</v>
       </c>
       <c r="AF89" s="0" t="n">
         <f aca="false">(AF$6/$U89)*360</f>
@@ -15021,11 +15021,11 @@
       </c>
       <c r="AG89" s="0" t="n">
         <f aca="false">(AG$6/$U89)*360</f>
-        <v>273.655642585167</v>
+        <v>273.655642585168</v>
       </c>
       <c r="AH89" s="0" t="n">
         <f aca="false">(AH$6/$U89)*360</f>
-        <v>58.9573209508451</v>
+        <v>58.957320950845</v>
       </c>
       <c r="AL89" s="0" t="n">
         <f aca="false">(AL$6/$U89)*360</f>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="AM89" s="0" t="n">
         <f aca="false">(AM$6/$U89)*360</f>
-        <v>544.429258748161</v>
+        <v>544.42925874816</v>
       </c>
       <c r="AN89" s="0" t="n">
         <f aca="false">(AN$6/$U89)*360</f>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="AO89" s="0" t="n">
         <f aca="false">(AO$6/$U89)*360</f>
-        <v>54.4429258748161</v>
+        <v>54.442925874816</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15055,47 +15055,47 @@
       </c>
       <c r="U90" s="0" t="n">
         <f aca="false">300/(T90*SQRT($D$10))</f>
-        <v>16.0738677591396</v>
+        <v>9.38879652590433</v>
       </c>
       <c r="W90" s="0" t="n">
         <f aca="false">(W$6/$U90)*360</f>
-        <v>74.2935534897628</v>
+        <v>74.2935534897631</v>
       </c>
       <c r="AA90" s="0" t="n">
         <f aca="false">(AA$6/$U90)*360</f>
-        <v>682.149900224185</v>
+        <v>682.149900224189</v>
       </c>
       <c r="AB90" s="0" t="n">
         <f aca="false">(AB$6/$U90)*360</f>
-        <v>68.2149900224185</v>
+        <v>68.2149900224189</v>
       </c>
       <c r="AF90" s="0" t="n">
         <f aca="false">(AF$6/$U90)*360</f>
-        <v>1330.05951404311</v>
+        <v>1330.05951404312</v>
       </c>
       <c r="AG90" s="0" t="n">
         <f aca="false">(AG$6/$U90)*360</f>
-        <v>286.552635686142</v>
+        <v>286.552635686144</v>
       </c>
       <c r="AH90" s="0" t="n">
         <f aca="false">(AH$6/$U90)*360</f>
-        <v>61.7358938842293</v>
+        <v>61.7358938842294</v>
       </c>
       <c r="AL90" s="0" t="n">
         <f aca="false">(AL$6/$U90)*360</f>
-        <v>1802.77471017214</v>
+        <v>1802.77471017215</v>
       </c>
       <c r="AM90" s="0" t="n">
         <f aca="false">(AM$6/$U90)*360</f>
-        <v>570.08741922939</v>
+        <v>570.087419229391</v>
       </c>
       <c r="AN90" s="0" t="n">
         <f aca="false">(AN$6/$U90)*360</f>
-        <v>180.277471017214</v>
+        <v>180.277471017215</v>
       </c>
       <c r="AO90" s="0" t="n">
         <f aca="false">(AO$6/$U90)*360</f>
-        <v>57.008741922939</v>
+        <v>57.0087419229391</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15109,27 +15109,27 @@
       </c>
       <c r="U91" s="0" t="n">
         <f aca="false">300/(T91*SQRT($D$10))</f>
-        <v>15.3504245386673</v>
+        <v>8.96623107390248</v>
       </c>
       <c r="W91" s="0" t="n">
         <f aca="false">(W$6/$U91)*360</f>
-        <v>77.7949007952771</v>
+        <v>77.7949007952772</v>
       </c>
       <c r="AA91" s="0" t="n">
         <f aca="false">(AA$6/$U91)*360</f>
-        <v>714.298634574817</v>
+        <v>714.298634574818</v>
       </c>
       <c r="AB91" s="0" t="n">
         <f aca="false">(AB$6/$U91)*360</f>
-        <v>71.4298634574817</v>
+        <v>71.4298634574818</v>
       </c>
       <c r="AF91" s="0" t="n">
         <f aca="false">(AF$6/$U91)*360</f>
-        <v>1392.74328776124</v>
+        <v>1392.74328776125</v>
       </c>
       <c r="AG91" s="0" t="n">
         <f aca="false">(AG$6/$U91)*360</f>
-        <v>300.057445346188</v>
+        <v>300.057445346189</v>
       </c>
       <c r="AH91" s="0" t="n">
         <f aca="false">(AH$6/$U91)*360</f>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="AM91" s="0" t="n">
         <f aca="false">(AM$6/$U91)*360</f>
-        <v>596.954811559755</v>
+        <v>596.954811559754</v>
       </c>
       <c r="AN91" s="0" t="n">
         <f aca="false">(AN$6/$U91)*360</f>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="AO91" s="0" t="n">
         <f aca="false">(AO$6/$U91)*360</f>
-        <v>59.6954811559755</v>
+        <v>59.6954811559754</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="U92" s="0" t="n">
         <f aca="false">300/(T92*SQRT($D$10))</f>
-        <v>14.6595416267088</v>
+        <v>8.5626842001319</v>
       </c>
       <c r="W92" s="0" t="n">
         <f aca="false">(W$6/$U92)*360</f>
@@ -15183,11 +15183,11 @@
       </c>
       <c r="AG92" s="0" t="n">
         <f aca="false">(AG$6/$U92)*360</f>
-        <v>314.198717077216</v>
+        <v>314.198717077217</v>
       </c>
       <c r="AH92" s="0" t="n">
         <f aca="false">(AH$6/$U92)*360</f>
-        <v>67.6920615634668</v>
+        <v>67.6920615634666</v>
       </c>
       <c r="AL92" s="0" t="n">
         <f aca="false">(AL$6/$U92)*360</f>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="AM92" s="0" t="n">
         <f aca="false">(AM$6/$U92)*360</f>
-        <v>625.088425080564</v>
+        <v>625.088425080563</v>
       </c>
       <c r="AN92" s="0" t="n">
         <f aca="false">(AN$6/$U92)*360</f>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="AO92" s="0" t="n">
         <f aca="false">(AO$6/$U92)*360</f>
-        <v>62.5088425080564</v>
+        <v>62.5088425080563</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15217,19 +15217,19 @@
       </c>
       <c r="U93" s="0" t="n">
         <f aca="false">300/(T93*SQRT($D$10))</f>
-        <v>13.9997535679795</v>
+        <v>8.17729992756887</v>
       </c>
       <c r="W93" s="0" t="n">
         <f aca="false">(W$6/$U93)*360</f>
-        <v>85.3004124931434</v>
+        <v>85.3004124931433</v>
       </c>
       <c r="AA93" s="0" t="n">
         <f aca="false">(AA$6/$U93)*360</f>
-        <v>783.212878346135</v>
+        <v>783.212878346134</v>
       </c>
       <c r="AB93" s="0" t="n">
         <f aca="false">(AB$6/$U93)*360</f>
-        <v>78.3212878346135</v>
+        <v>78.3212878346134</v>
       </c>
       <c r="AF93" s="0" t="n">
         <f aca="false">(AF$6/$U93)*360</f>
@@ -15241,23 +15241,23 @@
       </c>
       <c r="AH93" s="0" t="n">
         <f aca="false">(AH$6/$U93)*360</f>
-        <v>70.8822901395251</v>
+        <v>70.8822901395248</v>
       </c>
       <c r="AL93" s="0" t="n">
         <f aca="false">(AL$6/$U93)*360</f>
-        <v>2069.86231222714</v>
+        <v>2069.86231222713</v>
       </c>
       <c r="AM93" s="0" t="n">
         <f aca="false">(AM$6/$U93)*360</f>
-        <v>654.547934958035</v>
+        <v>654.547934958032</v>
       </c>
       <c r="AN93" s="0" t="n">
         <f aca="false">(AN$6/$U93)*360</f>
-        <v>206.986231222714</v>
+        <v>206.986231222713</v>
       </c>
       <c r="AO93" s="0" t="n">
         <f aca="false">(AO$6/$U93)*360</f>
-        <v>65.4547934958035</v>
+        <v>65.4547934958032</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15271,23 +15271,23 @@
       </c>
       <c r="U94" s="0" t="n">
         <f aca="false">300/(T94*SQRT($D$10))</f>
-        <v>13.3696608635476</v>
+        <v>7.8092608045019</v>
       </c>
       <c r="W94" s="0" t="n">
         <f aca="false">(W$6/$U94)*360</f>
-        <v>89.3204970820881</v>
+        <v>89.3204970820879</v>
       </c>
       <c r="AA94" s="0" t="n">
         <f aca="false">(AA$6/$U94)*360</f>
-        <v>820.124564117355</v>
+        <v>820.124564117352</v>
       </c>
       <c r="AB94" s="0" t="n">
         <f aca="false">(AB$6/$U94)*360</f>
-        <v>82.0124564117354</v>
+        <v>82.0124564117352</v>
       </c>
       <c r="AF94" s="0" t="n">
         <f aca="false">(AF$6/$U94)*360</f>
-        <v>1599.08324965855</v>
+        <v>1599.08324965854</v>
       </c>
       <c r="AG94" s="0" t="n">
         <f aca="false">(AG$6/$U94)*360</f>
@@ -15295,23 +15295,23 @@
       </c>
       <c r="AH94" s="0" t="n">
         <f aca="false">(AH$6/$U94)*360</f>
-        <v>74.2228695563235</v>
+        <v>74.2228695563231</v>
       </c>
       <c r="AL94" s="0" t="n">
         <f aca="false">(AL$6/$U94)*360</f>
-        <v>2167.41191766768</v>
+        <v>2167.41191766767</v>
       </c>
       <c r="AM94" s="0" t="n">
         <f aca="false">(AM$6/$U94)*360</f>
-        <v>685.395828762322</v>
+        <v>685.395828762318</v>
       </c>
       <c r="AN94" s="0" t="n">
         <f aca="false">(AN$6/$U94)*360</f>
-        <v>216.741191766768</v>
+        <v>216.741191766767</v>
       </c>
       <c r="AO94" s="0" t="n">
         <f aca="false">(AO$6/$U94)*360</f>
-        <v>68.5395828762322</v>
+        <v>68.5395828762318</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15325,19 +15325,19 @@
       </c>
       <c r="U95" s="0" t="n">
         <f aca="false">300/(T95*SQRT($D$10))</f>
-        <v>12.7679270023089</v>
+        <v>7.45778617060712</v>
       </c>
       <c r="W95" s="0" t="n">
         <f aca="false">(W$6/$U95)*360</f>
-        <v>93.5300424207516</v>
+        <v>93.5300424207512</v>
       </c>
       <c r="AA95" s="0" t="n">
         <f aca="false">(AA$6/$U95)*360</f>
-        <v>858.775844045082</v>
+        <v>858.77584404508</v>
       </c>
       <c r="AB95" s="0" t="n">
         <f aca="false">(AB$6/$U95)*360</f>
-        <v>85.8775844045082</v>
+        <v>85.877584404508</v>
       </c>
       <c r="AF95" s="0" t="n">
         <f aca="false">(AF$6/$U95)*360</f>
@@ -15349,23 +15349,23 @@
       </c>
       <c r="AH95" s="0" t="n">
         <f aca="false">(AH$6/$U95)*360</f>
-        <v>77.7208856306844</v>
+        <v>77.7208856306839</v>
       </c>
       <c r="AL95" s="0" t="n">
         <f aca="false">(AL$6/$U95)*360</f>
-        <v>2269.55889437558</v>
+        <v>2269.55889437557</v>
       </c>
       <c r="AM95" s="0" t="n">
         <f aca="false">(AM$6/$U95)*360</f>
-        <v>717.697539012033</v>
+        <v>717.697539012029</v>
       </c>
       <c r="AN95" s="0" t="n">
         <f aca="false">(AN$6/$U95)*360</f>
-        <v>226.955889437558</v>
+        <v>226.955889437557</v>
       </c>
       <c r="AO95" s="0" t="n">
         <f aca="false">(AO$6/$U95)*360</f>
-        <v>71.7697539012033</v>
+        <v>71.7697539012029</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15379,11 +15379,11 @@
       </c>
       <c r="U96" s="0" t="n">
         <f aca="false">300/(T96*SQRT($D$10))</f>
-        <v>12.1932756260679</v>
+        <v>7.12213050106296</v>
       </c>
       <c r="W96" s="0" t="n">
         <f aca="false">(W$6/$U96)*360</f>
-        <v>97.9379775191806</v>
+        <v>97.9379775191807</v>
       </c>
       <c r="AA96" s="0" t="n">
         <f aca="false">(AA$6/$U96)*360</f>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="AB96" s="0" t="n">
         <f aca="false">(AB$6/$U96)*360</f>
-        <v>89.9248702676113</v>
+        <v>89.9248702676114</v>
       </c>
       <c r="AF96" s="0" t="n">
         <f aca="false">(AF$6/$U96)*360</f>
@@ -15399,11 +15399,11 @@
       </c>
       <c r="AG96" s="0" t="n">
         <f aca="false">(AG$6/$U96)*360</f>
-        <v>377.749942944356</v>
+        <v>377.749942944357</v>
       </c>
       <c r="AH96" s="0" t="n">
         <f aca="false">(AH$6/$U96)*360</f>
-        <v>81.3837581236886</v>
+        <v>81.3837581236884</v>
       </c>
       <c r="AL96" s="0" t="n">
         <f aca="false">(AL$6/$U96)*360</f>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="AM96" s="0" t="n">
         <f aca="false">(AM$6/$U96)*360</f>
-        <v>751.521581965374</v>
+        <v>751.521581965373</v>
       </c>
       <c r="AN96" s="0" t="n">
         <f aca="false">(AN$6/$U96)*360</f>
@@ -15419,7 +15419,7 @@
       </c>
       <c r="AO96" s="0" t="n">
         <f aca="false">(AO$6/$U96)*360</f>
-        <v>75.1521581965374</v>
+        <v>75.1521581965372</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15433,19 +15433,19 @@
       </c>
       <c r="U97" s="0" t="n">
         <f aca="false">300/(T97*SQRT($D$10))</f>
-        <v>11.6444878222107</v>
+        <v>6.80158182519225</v>
       </c>
       <c r="W97" s="0" t="n">
         <f aca="false">(W$6/$U97)*360</f>
-        <v>102.553652198701</v>
+        <v>102.553652198702</v>
       </c>
       <c r="AA97" s="0" t="n">
         <f aca="false">(AA$6/$U97)*360</f>
-        <v>941.628988369893</v>
+        <v>941.628988369896</v>
       </c>
       <c r="AB97" s="0" t="n">
         <f aca="false">(AB$6/$U97)*360</f>
-        <v>94.1628988369893</v>
+        <v>94.1628988369896</v>
       </c>
       <c r="AF97" s="0" t="n">
         <f aca="false">(AF$6/$U97)*360</f>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="AG97" s="0" t="n">
         <f aca="false">(AG$6/$U97)*360</f>
-        <v>395.552749281634</v>
+        <v>395.552749281635</v>
       </c>
       <c r="AH97" s="0" t="n">
         <f aca="false">(AH$6/$U97)*360</f>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="AL97" s="0" t="n">
         <f aca="false">(AL$6/$U97)*360</f>
-        <v>2488.52184254565</v>
+        <v>2488.52184254566</v>
       </c>
       <c r="AM97" s="0" t="n">
         <f aca="false">(AM$6/$U97)*360</f>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="AN97" s="0" t="n">
         <f aca="false">(AN$6/$U97)*360</f>
-        <v>248.852184254565</v>
+        <v>248.852184254566</v>
       </c>
       <c r="AO97" s="0" t="n">
         <f aca="false">(AO$6/$U97)*360</f>
@@ -15487,7 +15487,7 @@
       </c>
       <c r="U98" s="0" t="n">
         <f aca="false">300/(T98*SQRT($D$10))</f>
-        <v>11.1203995382281</v>
+        <v>6.49546021627676</v>
       </c>
       <c r="W98" s="0" t="n">
         <f aca="false">(W$6/$U98)*360</f>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="AB98" s="0" t="n">
         <f aca="false">(AB$6/$U98)*360</f>
-        <v>98.6006595394404</v>
+        <v>98.6006595394405</v>
       </c>
       <c r="AF98" s="0" t="n">
         <f aca="false">(AF$6/$U98)*360</f>
@@ -15507,11 +15507,11 @@
       </c>
       <c r="AG98" s="0" t="n">
         <f aca="false">(AG$6/$U98)*360</f>
-        <v>414.194576032819</v>
+        <v>414.19457603282</v>
       </c>
       <c r="AH98" s="0" t="n">
         <f aca="false">(AH$6/$U98)*360</f>
-        <v>89.2355163028153</v>
+        <v>89.2355163028151</v>
       </c>
       <c r="AL98" s="0" t="n">
         <f aca="false">(AL$6/$U98)*360</f>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="AM98" s="0" t="n">
         <f aca="false">(AM$6/$U98)*360</f>
-        <v>824.027028556066</v>
+        <v>824.027028556065</v>
       </c>
       <c r="AN98" s="0" t="n">
         <f aca="false">(AN$6/$U98)*360</f>
@@ -15527,7 +15527,7 @@
       </c>
       <c r="AO98" s="0" t="n">
         <f aca="false">(AO$6/$U98)*360</f>
-        <v>82.4027028556066</v>
+        <v>82.4027028556064</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="U99" s="0" t="n">
         <f aca="false">300/(T99*SQRT($D$10))</f>
-        <v>10.6198991126041</v>
+        <v>6.20311634934152</v>
       </c>
       <c r="W99" s="0" t="n">
         <f aca="false">(W$6/$U99)*360</f>
@@ -15565,23 +15565,23 @@
       </c>
       <c r="AH99" s="0" t="n">
         <f aca="false">(AH$6/$U99)*360</f>
-        <v>93.4410566207394</v>
+        <v>93.4410566207389</v>
       </c>
       <c r="AL99" s="0" t="n">
         <f aca="false">(AL$6/$U99)*360</f>
-        <v>2728.60994097737</v>
+        <v>2728.60994097736</v>
       </c>
       <c r="AM99" s="0" t="n">
         <f aca="false">(AM$6/$U99)*360</f>
-        <v>862.862225966611</v>
+        <v>862.862225966606</v>
       </c>
       <c r="AN99" s="0" t="n">
         <f aca="false">(AN$6/$U99)*360</f>
-        <v>272.860994097737</v>
+        <v>272.860994097736</v>
       </c>
       <c r="AO99" s="0" t="n">
         <f aca="false">(AO$6/$U99)*360</f>
-        <v>86.2862225966611</v>
+        <v>86.2862225966606</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="U100" s="0" t="n">
         <f aca="false">300/(T100*SQRT($D$10))</f>
-        <v>10.1419249168325</v>
+        <v>5.92393012384949</v>
       </c>
       <c r="W100" s="0" t="n">
         <f aca="false">(W$6/$U100)*360</f>
@@ -15615,27 +15615,27 @@
       </c>
       <c r="AG100" s="0" t="n">
         <f aca="false">(AG$6/$U100)*360</f>
-        <v>454.155321580756</v>
+        <v>454.155321580757</v>
       </c>
       <c r="AH100" s="0" t="n">
         <f aca="false">(AH$6/$U100)*360</f>
-        <v>97.8447979476167</v>
+        <v>97.8447979476164</v>
       </c>
       <c r="AL100" s="0" t="n">
         <f aca="false">(AL$6/$U100)*360</f>
-        <v>2857.20536569289</v>
+        <v>2857.20536569288</v>
       </c>
       <c r="AM100" s="0" t="n">
         <f aca="false">(AM$6/$U100)*360</f>
-        <v>903.527669844384</v>
+        <v>903.527669844381</v>
       </c>
       <c r="AN100" s="0" t="n">
         <f aca="false">(AN$6/$U100)*360</f>
-        <v>285.720536569289</v>
+        <v>285.720536569288</v>
       </c>
       <c r="AO100" s="0" t="n">
         <f aca="false">(AO$6/$U100)*360</f>
-        <v>90.3527669844384</v>
+        <v>90.3527669844381</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15649,11 +15649,11 @@
       </c>
       <c r="U101" s="0" t="n">
         <f aca="false">300/(T101*SQRT($D$10))</f>
-        <v>9.68546310356111</v>
+        <v>5.6573093483853</v>
       </c>
       <c r="W101" s="0" t="n">
         <f aca="false">(W$6/$U101)*360</f>
-        <v>123.296608678622</v>
+        <v>123.296608678623</v>
       </c>
       <c r="AA101" s="0" t="n">
         <f aca="false">(AA$6/$U101)*360</f>
@@ -15669,11 +15669,11 @@
       </c>
       <c r="AG101" s="0" t="n">
         <f aca="false">(AG$6/$U101)*360</f>
-        <v>475.559002476447</v>
+        <v>475.559002476448</v>
       </c>
       <c r="AH101" s="0" t="n">
         <f aca="false">(AH$6/$U101)*360</f>
-        <v>102.456081209222</v>
+        <v>102.456081209221</v>
       </c>
       <c r="AL101" s="0" t="n">
         <f aca="false">(AL$6/$U101)*360</f>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="AM101" s="0" t="n">
         <f aca="false">(AM$6/$U101)*360</f>
-        <v>946.109617047962</v>
+        <v>946.109617047961</v>
       </c>
       <c r="AN101" s="0" t="n">
         <f aca="false">(AN$6/$U101)*360</f>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="AO101" s="0" t="n">
         <f aca="false">(AO$6/$U101)*360</f>
-        <v>94.6109617047962</v>
+        <v>94.6109617047961</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="U102" s="0" t="n">
         <f aca="false">300/(T102*SQRT($D$10))</f>
-        <v>9.24954545608503</v>
+        <v>5.40268848453772</v>
       </c>
       <c r="W102" s="0" t="n">
         <f aca="false">(W$6/$U102)*360</f>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="AA102" s="0" t="n">
         <f aca="false">(AA$6/$U102)*360</f>
-        <v>1185.44066194089</v>
+        <v>1185.4406619409</v>
       </c>
       <c r="AB102" s="0" t="n">
         <f aca="false">(AB$6/$U102)*360</f>
-        <v>118.544066194089</v>
+        <v>118.54406619409</v>
       </c>
       <c r="AF102" s="0" t="n">
         <f aca="false">(AF$6/$U102)*360</f>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="AG102" s="0" t="n">
         <f aca="false">(AG$6/$U102)*360</f>
-        <v>497.971407775696</v>
+        <v>497.971407775697</v>
       </c>
       <c r="AH102" s="0" t="n">
         <f aca="false">(AH$6/$U102)*360</f>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="AM102" s="0" t="n">
         <f aca="false">(AM$6/$U102)*360</f>
-        <v>990.698389596426</v>
+        <v>990.698389596425</v>
       </c>
       <c r="AN102" s="0" t="n">
         <f aca="false">(AN$6/$U102)*360</f>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="AO102" s="0" t="n">
         <f aca="false">(AO$6/$U102)*360</f>
-        <v>99.0698389596426</v>
+        <v>99.0698389596425</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="U103" s="0" t="n">
         <f aca="false">300/(T103*SQRT($D$10))</f>
-        <v>8.83324733462946</v>
+        <v>5.15952744731692</v>
       </c>
       <c r="W103" s="0" t="n">
         <f aca="false">(W$6/$U103)*360</f>
@@ -15811,27 +15811,27 @@
       </c>
       <c r="U104" s="0" t="n">
         <f aca="false">300/(T104*SQRT($D$10))</f>
-        <v>8.43568571506475</v>
+        <v>4.92731045956175</v>
       </c>
       <c r="W104" s="0" t="n">
         <f aca="false">(W$6/$U104)*360</f>
-        <v>141.563447772644</v>
+        <v>141.563447772645</v>
       </c>
       <c r="AA104" s="0" t="n">
         <f aca="false">(AA$6/$U104)*360</f>
-        <v>1299.80983863973</v>
+        <v>1299.80983863974</v>
       </c>
       <c r="AB104" s="0" t="n">
         <f aca="false">(AB$6/$U104)*360</f>
-        <v>129.980983863973</v>
+        <v>129.980983863974</v>
       </c>
       <c r="AF104" s="0" t="n">
         <f aca="false">(AF$6/$U104)*360</f>
-        <v>2534.37615656243</v>
+        <v>2534.37615656244</v>
       </c>
       <c r="AG104" s="0" t="n">
         <f aca="false">(AG$6/$U104)*360</f>
-        <v>546.014790928777</v>
+        <v>546.014790928779</v>
       </c>
       <c r="AH104" s="0" t="n">
         <f aca="false">(AH$6/$U104)*360</f>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="U105" s="0" t="n">
         <f aca="false">300/(T105*SQRT($D$10))</f>
-        <v>8.05601731589377</v>
+        <v>4.70554495790736</v>
       </c>
       <c r="W105" s="0" t="n">
         <f aca="false">(W$6/$U105)*360</f>
@@ -15881,7 +15881,7 @@
       </c>
       <c r="AF105" s="0" t="n">
         <f aca="false">(AF$6/$U105)*360</f>
-        <v>2653.81762503603</v>
+        <v>2653.81762503604</v>
       </c>
       <c r="AG105" s="0" t="n">
         <f aca="false">(AG$6/$U105)*360</f>
@@ -15897,7 +15897,7 @@
       </c>
       <c r="AM105" s="0" t="n">
         <f aca="false">(AM$6/$U105)*360</f>
-        <v>1137.47394382627</v>
+        <v>1137.47394382626</v>
       </c>
       <c r="AN105" s="0" t="n">
         <f aca="false">(AN$6/$U105)*360</f>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="AO105" s="0" t="n">
         <f aca="false">(AO$6/$U105)*360</f>
-        <v>113.747394382627</v>
+        <v>113.747394382626</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15919,7 +15919,7 @@
       </c>
       <c r="U106" s="0" t="n">
         <f aca="false">300/(T106*SQRT($D$10))</f>
-        <v>7.69343680953886</v>
+        <v>4.49376054799209</v>
       </c>
       <c r="W106" s="0" t="n">
         <f aca="false">(W$6/$U106)*360</f>
@@ -15943,23 +15943,23 @@
       </c>
       <c r="AH106" s="0" t="n">
         <f aca="false">(AH$6/$U106)*360</f>
-        <v>128.984564227136</v>
+        <v>128.984564227135</v>
       </c>
       <c r="AL106" s="0" t="n">
         <f aca="false">(AL$6/$U106)*360</f>
-        <v>3766.53022676417</v>
+        <v>3766.53022676416</v>
       </c>
       <c r="AM106" s="0" t="n">
         <f aca="false">(AM$6/$U106)*360</f>
-        <v>1191.08143924453</v>
+        <v>1191.08143924452</v>
       </c>
       <c r="AN106" s="0" t="n">
         <f aca="false">(AN$6/$U106)*360</f>
-        <v>376.653022676417</v>
+        <v>376.653022676416</v>
       </c>
       <c r="AO106" s="0" t="n">
         <f aca="false">(AO$6/$U106)*360</f>
-        <v>119.108143924453</v>
+        <v>119.108143924452</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="U107" s="0" t="n">
         <f aca="false">300/(T107*SQRT($D$10))</f>
-        <v>7.34717511413402</v>
+        <v>4.29150800668807</v>
       </c>
       <c r="W107" s="0" t="n">
         <f aca="false">(W$6/$U107)*360</f>
@@ -15997,23 +15997,23 @@
       </c>
       <c r="AH107" s="0" t="n">
         <f aca="false">(AH$6/$U107)*360</f>
-        <v>135.063419460139</v>
+        <v>135.063419460138</v>
       </c>
       <c r="AL107" s="0" t="n">
         <f aca="false">(AL$6/$U107)*360</f>
-        <v>3944.04132754139</v>
+        <v>3944.04132754138</v>
       </c>
       <c r="AM107" s="0" t="n">
         <f aca="false">(AM$6/$U107)*360</f>
-        <v>1247.2153780865</v>
+        <v>1247.21537808649</v>
       </c>
       <c r="AN107" s="0" t="n">
         <f aca="false">(AN$6/$U107)*360</f>
-        <v>394.404132754139</v>
+        <v>394.404132754138</v>
       </c>
       <c r="AO107" s="0" t="n">
         <f aca="false">(AO$6/$U107)*360</f>
-        <v>124.72153780865</v>
+        <v>124.721537808649</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="U108" s="0" t="n">
         <f aca="false">300/(T108*SQRT($D$10))</f>
-        <v>7.01649776219919</v>
+        <v>4.09835832923872</v>
       </c>
       <c r="W108" s="0" t="n">
         <f aca="false">(W$6/$U108)*360</f>
@@ -16043,11 +16043,11 @@
       </c>
       <c r="AF108" s="0" t="n">
         <f aca="false">(AF$6/$U108)*360</f>
-        <v>3046.99031697738</v>
+        <v>3046.99031697739</v>
       </c>
       <c r="AG108" s="0" t="n">
         <f aca="false">(AG$6/$U108)*360</f>
-        <v>656.454163908731</v>
+        <v>656.454163908733</v>
       </c>
       <c r="AH108" s="0" t="n">
         <f aca="false">(AH$6/$U108)*360</f>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="U109" s="0" t="n">
         <f aca="false">300/(T109*SQRT($D$10))</f>
-        <v>6.70070334273622</v>
+        <v>3.91390181928218</v>
       </c>
       <c r="W109" s="0" t="n">
         <f aca="false">(W$6/$U109)*360</f>
@@ -16097,11 +16097,11 @@
       </c>
       <c r="AF109" s="0" t="n">
         <f aca="false">(AF$6/$U109)*360</f>
-        <v>3190.59054654167</v>
+        <v>3190.59054654168</v>
       </c>
       <c r="AG109" s="0" t="n">
         <f aca="false">(AG$6/$U109)*360</f>
-        <v>687.391895515717</v>
+        <v>687.391895515718</v>
       </c>
       <c r="AH109" s="0" t="n">
         <f aca="false">(AH$6/$U109)*360</f>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="AL109" s="0" t="n">
         <f aca="false">(AL$6/$U109)*360</f>
-        <v>4324.55532033676</v>
+        <v>4324.55532033675</v>
       </c>
       <c r="AM109" s="0" t="n">
         <f aca="false">(AM$6/$U109)*360</f>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="AN109" s="0" t="n">
         <f aca="false">(AN$6/$U109)*360</f>
-        <v>432.455532033676</v>
+        <v>432.455532033675</v>
       </c>
       <c r="AO109" s="0" t="n">
         <f aca="false">(AO$6/$U109)*360</f>
@@ -16196,8 +16196,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T39" activeCellId="0" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
